--- a/development/database/excel/platIap.xlsx
+++ b/development/database/excel/platIap.xlsx
@@ -10,7 +10,7 @@
     <sheet name="menu" sheetId="2" r:id="rId1"/>
     <sheet name="东海" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="552">
   <si>
     <t>内购编号</t>
   </si>
@@ -2565,6 +2565,508 @@
   <si>
     <t>com.mmo.hj.jzjy_303</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>6095</t>
+  </si>
+  <si>
+    <t>6095</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com.mmo.yb.dtzx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_101</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com.mmo.yb.dtzx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_102</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com.mmo.yb.dtzx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_103</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com.mmo.yb.dtzx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_104</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com.mmo.yb.dtzx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_105</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com.mmo.yb.dtzx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_106</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com.mmo.yb.dtzx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_107</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com.mmo.sq.dtzx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_201</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com.mmo.qt.dtzx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_301</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mmo.by.dtzx_302</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com.mmo.hj.dtzx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_303</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐乐佳</t>
+  </si>
+  <si>
+    <t>大唐诛仙</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐乐佳</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>吖呀</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>吖呀</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>创誓记</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>创誓记</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com.mmo.yb.csj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_101</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com.mmo.yb.csj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_102</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>com.mmo.yb.csj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_103</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>com.mmo.yb.csj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_104</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>com.mmo.yb.csj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_105</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>com.mmo.yb.csj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_106</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>com.mmo.yb.csj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_107</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com.mmo.sq.csj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_201</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com.mmo.qt.csj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_301</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mmo.by.csj_302</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com.mmo.hj.csj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_303</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2709,7 +3211,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2848,6 +3350,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2881,7 +3395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3496,6 +4010,54 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="24" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="25" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3773,11 +4335,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K399"/>
+  <dimension ref="A1:K421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E312" sqref="E312"/>
+      <pane ySplit="3" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F293" sqref="F293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12866,7 +13428,7 @@
     </row>
     <row r="253" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A253" s="63" t="str">
-        <f t="shared" ref="A253:A327" si="6">B253&amp;"_"&amp;C253&amp;"_"&amp;D253</f>
+        <f t="shared" ref="A253:A349" si="6">B253&amp;"_"&amp;C253&amp;"_"&amp;D253</f>
         <v>201_90002_10012</v>
       </c>
       <c r="B253" s="64">
@@ -14196,3963 +14758,4755 @@
         <v>426</v>
       </c>
     </row>
-    <row r="290" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A290" s="164" t="str">
+    <row r="290" spans="1:11" s="219" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="213" t="str">
+        <f>B290&amp;"_"&amp;C290&amp;"_"&amp;D290</f>
+        <v>101_90002_5</v>
+      </c>
+      <c r="B290" s="214">
+        <v>101</v>
+      </c>
+      <c r="C290" s="213">
+        <v>90002</v>
+      </c>
+      <c r="D290" s="214" t="s">
+        <v>533</v>
+      </c>
+      <c r="E290" s="215" t="s">
+        <v>519</v>
+      </c>
+      <c r="F290" s="216">
+        <v>6</v>
+      </c>
+      <c r="G290" s="217" t="s">
+        <v>5</v>
+      </c>
+      <c r="H290" s="218" t="s">
+        <v>51</v>
+      </c>
+      <c r="I290" s="213" t="s">
+        <v>98</v>
+      </c>
+      <c r="J290" s="214" t="s">
+        <v>534</v>
+      </c>
+      <c r="K290" s="214" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" s="219" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="213" t="str">
+        <f>B291&amp;"_"&amp;C291&amp;"_"&amp;D291</f>
+        <v>102_90002_5</v>
+      </c>
+      <c r="B291" s="214">
+        <v>102</v>
+      </c>
+      <c r="C291" s="213">
+        <v>90002</v>
+      </c>
+      <c r="D291" s="214" t="s">
+        <v>533</v>
+      </c>
+      <c r="E291" s="215" t="s">
+        <v>520</v>
+      </c>
+      <c r="F291" s="216">
+        <v>30</v>
+      </c>
+      <c r="G291" s="217" t="s">
+        <v>8</v>
+      </c>
+      <c r="H291" s="218" t="s">
+        <v>52</v>
+      </c>
+      <c r="I291" s="213" t="s">
+        <v>98</v>
+      </c>
+      <c r="J291" s="213" t="s">
+        <v>530</v>
+      </c>
+      <c r="K291" s="214" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" s="219" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A292" s="213" t="str">
+        <f t="shared" ref="A292:A298" si="7">B292&amp;"_"&amp;C292&amp;"_"&amp;D292</f>
+        <v>103_90002_5</v>
+      </c>
+      <c r="B292" s="214">
+        <v>103</v>
+      </c>
+      <c r="C292" s="213">
+        <v>90002</v>
+      </c>
+      <c r="D292" s="214" t="s">
+        <v>532</v>
+      </c>
+      <c r="E292" s="215" t="s">
+        <v>521</v>
+      </c>
+      <c r="F292" s="216">
+        <v>98</v>
+      </c>
+      <c r="G292" s="217" t="s">
+        <v>10</v>
+      </c>
+      <c r="H292" s="218" t="s">
+        <v>53</v>
+      </c>
+      <c r="I292" s="213" t="s">
+        <v>98</v>
+      </c>
+      <c r="J292" s="214" t="s">
+        <v>530</v>
+      </c>
+      <c r="K292" s="214" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" s="219" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="213" t="str">
+        <f t="shared" si="7"/>
+        <v>104_90002_5</v>
+      </c>
+      <c r="B293" s="214">
+        <v>104</v>
+      </c>
+      <c r="C293" s="213">
+        <v>90002</v>
+      </c>
+      <c r="D293" s="214" t="s">
+        <v>532</v>
+      </c>
+      <c r="E293" s="215" t="s">
+        <v>522</v>
+      </c>
+      <c r="F293" s="216">
+        <v>168</v>
+      </c>
+      <c r="G293" s="217" t="s">
+        <v>12</v>
+      </c>
+      <c r="H293" s="218" t="s">
+        <v>54</v>
+      </c>
+      <c r="I293" s="213" t="s">
+        <v>98</v>
+      </c>
+      <c r="J293" s="213" t="s">
+        <v>530</v>
+      </c>
+      <c r="K293" s="214" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" s="219" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="213" t="str">
+        <f t="shared" si="7"/>
+        <v>105_90002_5</v>
+      </c>
+      <c r="B294" s="214">
+        <v>105</v>
+      </c>
+      <c r="C294" s="213">
+        <v>90002</v>
+      </c>
+      <c r="D294" s="214" t="s">
+        <v>532</v>
+      </c>
+      <c r="E294" s="215" t="s">
+        <v>523</v>
+      </c>
+      <c r="F294" s="216">
+        <v>238</v>
+      </c>
+      <c r="G294" s="217" t="s">
+        <v>14</v>
+      </c>
+      <c r="H294" s="218" t="s">
+        <v>55</v>
+      </c>
+      <c r="I294" s="213" t="s">
+        <v>98</v>
+      </c>
+      <c r="J294" s="214" t="s">
+        <v>530</v>
+      </c>
+      <c r="K294" s="214" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" s="219" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="213" t="str">
+        <f t="shared" si="7"/>
+        <v>106_90002_5</v>
+      </c>
+      <c r="B295" s="214">
+        <v>106</v>
+      </c>
+      <c r="C295" s="213">
+        <v>90002</v>
+      </c>
+      <c r="D295" s="214" t="s">
+        <v>532</v>
+      </c>
+      <c r="E295" s="215" t="s">
+        <v>524</v>
+      </c>
+      <c r="F295" s="216">
+        <v>328</v>
+      </c>
+      <c r="G295" s="217" t="s">
+        <v>16</v>
+      </c>
+      <c r="H295" s="218" t="s">
+        <v>56</v>
+      </c>
+      <c r="I295" s="213" t="s">
+        <v>98</v>
+      </c>
+      <c r="J295" s="213" t="s">
+        <v>530</v>
+      </c>
+      <c r="K295" s="214" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" s="219" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A296" s="213" t="str">
+        <f t="shared" si="7"/>
+        <v>107_90002_5</v>
+      </c>
+      <c r="B296" s="214">
+        <v>107</v>
+      </c>
+      <c r="C296" s="213">
+        <v>90002</v>
+      </c>
+      <c r="D296" s="214" t="s">
+        <v>532</v>
+      </c>
+      <c r="E296" s="215" t="s">
+        <v>525</v>
+      </c>
+      <c r="F296" s="216">
+        <v>648</v>
+      </c>
+      <c r="G296" s="217" t="s">
+        <v>18</v>
+      </c>
+      <c r="H296" s="218" t="s">
+        <v>57</v>
+      </c>
+      <c r="I296" s="213" t="s">
+        <v>98</v>
+      </c>
+      <c r="J296" s="214" t="s">
+        <v>530</v>
+      </c>
+      <c r="K296" s="214" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" s="219" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="213" t="str">
+        <f t="shared" si="7"/>
+        <v>201_90002_5</v>
+      </c>
+      <c r="B297" s="214">
+        <v>201</v>
+      </c>
+      <c r="C297" s="213">
+        <v>90002</v>
+      </c>
+      <c r="D297" s="214" t="s">
+        <v>532</v>
+      </c>
+      <c r="E297" s="215" t="s">
+        <v>526</v>
+      </c>
+      <c r="F297" s="220">
+        <v>88</v>
+      </c>
+      <c r="G297" s="220" t="s">
+        <v>20</v>
+      </c>
+      <c r="H297" s="220" t="s">
+        <v>58</v>
+      </c>
+      <c r="I297" s="213" t="s">
+        <v>98</v>
+      </c>
+      <c r="J297" s="213" t="s">
+        <v>530</v>
+      </c>
+      <c r="K297" s="214" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" s="219" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A298" s="213" t="str">
+        <f t="shared" si="7"/>
+        <v>301_90002_5</v>
+      </c>
+      <c r="B298" s="214">
+        <v>301</v>
+      </c>
+      <c r="C298" s="213">
+        <v>90002</v>
+      </c>
+      <c r="D298" s="214" t="s">
+        <v>532</v>
+      </c>
+      <c r="E298" s="215" t="s">
+        <v>527</v>
+      </c>
+      <c r="F298" s="220">
+        <v>6</v>
+      </c>
+      <c r="G298" s="220" t="s">
+        <v>22</v>
+      </c>
+      <c r="H298" s="220" t="s">
+        <v>59</v>
+      </c>
+      <c r="I298" s="213" t="s">
+        <v>98</v>
+      </c>
+      <c r="J298" s="214" t="s">
+        <v>530</v>
+      </c>
+      <c r="K298" s="214" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" s="219" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="213" t="str">
+        <f>B299&amp;"_"&amp;C299&amp;"_"&amp;D299</f>
+        <v>302_90002_5</v>
+      </c>
+      <c r="B299" s="214">
+        <v>302</v>
+      </c>
+      <c r="C299" s="213">
+        <v>90002</v>
+      </c>
+      <c r="D299" s="214" t="s">
+        <v>532</v>
+      </c>
+      <c r="E299" s="215" t="s">
+        <v>528</v>
+      </c>
+      <c r="F299" s="220">
+        <v>12</v>
+      </c>
+      <c r="G299" s="220" t="s">
+        <v>24</v>
+      </c>
+      <c r="H299" s="220" t="s">
+        <v>60</v>
+      </c>
+      <c r="I299" s="213" t="s">
+        <v>98</v>
+      </c>
+      <c r="J299" s="213" t="s">
+        <v>530</v>
+      </c>
+      <c r="K299" s="214" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" s="219" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="213" t="str">
+        <f>B300&amp;"_"&amp;C300&amp;"_"&amp;D300</f>
+        <v>303_90002_5</v>
+      </c>
+      <c r="B300" s="214">
+        <v>303</v>
+      </c>
+      <c r="C300" s="213">
+        <v>90002</v>
+      </c>
+      <c r="D300" s="214" t="s">
+        <v>532</v>
+      </c>
+      <c r="E300" s="215" t="s">
+        <v>529</v>
+      </c>
+      <c r="F300" s="220">
+        <v>25</v>
+      </c>
+      <c r="G300" s="220" t="s">
+        <v>26</v>
+      </c>
+      <c r="H300" s="220" t="s">
+        <v>61</v>
+      </c>
+      <c r="I300" s="213" t="s">
+        <v>98</v>
+      </c>
+      <c r="J300" s="214" t="s">
+        <v>530</v>
+      </c>
+      <c r="K300" s="214" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" s="211" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="205" t="str">
+        <f t="shared" ref="A301:A309" si="8">B301&amp;"_"&amp;C301&amp;"_"&amp;D301</f>
+        <v>101_90002_7</v>
+      </c>
+      <c r="B301" s="206">
+        <v>101</v>
+      </c>
+      <c r="C301" s="205">
+        <v>90002</v>
+      </c>
+      <c r="D301" s="206" t="s">
+        <v>536</v>
+      </c>
+      <c r="E301" s="207" t="s">
+        <v>541</v>
+      </c>
+      <c r="F301" s="208">
+        <v>6</v>
+      </c>
+      <c r="G301" s="209" t="s">
+        <v>5</v>
+      </c>
+      <c r="H301" s="210" t="s">
+        <v>51</v>
+      </c>
+      <c r="I301" s="205" t="s">
+        <v>98</v>
+      </c>
+      <c r="J301" s="206" t="s">
+        <v>537</v>
+      </c>
+      <c r="K301" s="206" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" s="211" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="205" t="str">
+        <f>B302&amp;"_"&amp;C302&amp;"_"&amp;D302</f>
+        <v>102_90002_7</v>
+      </c>
+      <c r="B302" s="206">
+        <v>102</v>
+      </c>
+      <c r="C302" s="205">
+        <v>90002</v>
+      </c>
+      <c r="D302" s="206" t="s">
+        <v>536</v>
+      </c>
+      <c r="E302" s="207" t="s">
+        <v>542</v>
+      </c>
+      <c r="F302" s="208">
+        <v>30</v>
+      </c>
+      <c r="G302" s="209" t="s">
+        <v>8</v>
+      </c>
+      <c r="H302" s="210" t="s">
+        <v>52</v>
+      </c>
+      <c r="I302" s="205" t="s">
+        <v>98</v>
+      </c>
+      <c r="J302" s="205" t="s">
+        <v>538</v>
+      </c>
+      <c r="K302" s="206" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" s="211" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A303" s="205" t="str">
+        <f t="shared" si="8"/>
+        <v>103_90002_7</v>
+      </c>
+      <c r="B303" s="206">
+        <v>103</v>
+      </c>
+      <c r="C303" s="205">
+        <v>90002</v>
+      </c>
+      <c r="D303" s="206" t="s">
+        <v>535</v>
+      </c>
+      <c r="E303" s="207" t="s">
+        <v>543</v>
+      </c>
+      <c r="F303" s="208">
+        <v>98</v>
+      </c>
+      <c r="G303" s="209" t="s">
+        <v>10</v>
+      </c>
+      <c r="H303" s="210" t="s">
+        <v>53</v>
+      </c>
+      <c r="I303" s="205" t="s">
+        <v>98</v>
+      </c>
+      <c r="J303" s="206" t="s">
+        <v>537</v>
+      </c>
+      <c r="K303" s="206" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" s="211" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A304" s="205" t="str">
+        <f t="shared" si="8"/>
+        <v>104_90002_7</v>
+      </c>
+      <c r="B304" s="206">
+        <v>104</v>
+      </c>
+      <c r="C304" s="205">
+        <v>90002</v>
+      </c>
+      <c r="D304" s="206" t="s">
+        <v>535</v>
+      </c>
+      <c r="E304" s="207" t="s">
+        <v>544</v>
+      </c>
+      <c r="F304" s="208">
+        <v>168</v>
+      </c>
+      <c r="G304" s="209" t="s">
+        <v>12</v>
+      </c>
+      <c r="H304" s="210" t="s">
+        <v>54</v>
+      </c>
+      <c r="I304" s="205" t="s">
+        <v>98</v>
+      </c>
+      <c r="J304" s="205" t="s">
+        <v>538</v>
+      </c>
+      <c r="K304" s="206" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" s="211" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A305" s="205" t="str">
+        <f t="shared" si="8"/>
+        <v>105_90002_7</v>
+      </c>
+      <c r="B305" s="206">
+        <v>105</v>
+      </c>
+      <c r="C305" s="205">
+        <v>90002</v>
+      </c>
+      <c r="D305" s="206" t="s">
+        <v>535</v>
+      </c>
+      <c r="E305" s="207" t="s">
+        <v>545</v>
+      </c>
+      <c r="F305" s="208">
+        <v>238</v>
+      </c>
+      <c r="G305" s="209" t="s">
+        <v>14</v>
+      </c>
+      <c r="H305" s="210" t="s">
+        <v>55</v>
+      </c>
+      <c r="I305" s="205" t="s">
+        <v>98</v>
+      </c>
+      <c r="J305" s="206" t="s">
+        <v>537</v>
+      </c>
+      <c r="K305" s="206" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" s="211" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A306" s="205" t="str">
+        <f t="shared" si="8"/>
+        <v>106_90002_7</v>
+      </c>
+      <c r="B306" s="206">
+        <v>106</v>
+      </c>
+      <c r="C306" s="205">
+        <v>90002</v>
+      </c>
+      <c r="D306" s="206" t="s">
+        <v>535</v>
+      </c>
+      <c r="E306" s="207" t="s">
+        <v>546</v>
+      </c>
+      <c r="F306" s="208">
+        <v>328</v>
+      </c>
+      <c r="G306" s="209" t="s">
+        <v>16</v>
+      </c>
+      <c r="H306" s="210" t="s">
+        <v>56</v>
+      </c>
+      <c r="I306" s="205" t="s">
+        <v>98</v>
+      </c>
+      <c r="J306" s="205" t="s">
+        <v>538</v>
+      </c>
+      <c r="K306" s="206" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" s="211" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A307" s="205" t="str">
+        <f t="shared" si="8"/>
+        <v>107_90002_7</v>
+      </c>
+      <c r="B307" s="206">
+        <v>107</v>
+      </c>
+      <c r="C307" s="205">
+        <v>90002</v>
+      </c>
+      <c r="D307" s="206" t="s">
+        <v>535</v>
+      </c>
+      <c r="E307" s="207" t="s">
+        <v>547</v>
+      </c>
+      <c r="F307" s="208">
+        <v>648</v>
+      </c>
+      <c r="G307" s="209" t="s">
+        <v>18</v>
+      </c>
+      <c r="H307" s="210" t="s">
+        <v>57</v>
+      </c>
+      <c r="I307" s="205" t="s">
+        <v>98</v>
+      </c>
+      <c r="J307" s="206" t="s">
+        <v>537</v>
+      </c>
+      <c r="K307" s="206" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" s="211" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A308" s="205" t="str">
+        <f t="shared" si="8"/>
+        <v>201_90002_7</v>
+      </c>
+      <c r="B308" s="206">
+        <v>201</v>
+      </c>
+      <c r="C308" s="205">
+        <v>90002</v>
+      </c>
+      <c r="D308" s="206" t="s">
+        <v>535</v>
+      </c>
+      <c r="E308" s="207" t="s">
+        <v>548</v>
+      </c>
+      <c r="F308" s="212">
+        <v>88</v>
+      </c>
+      <c r="G308" s="212" t="s">
+        <v>20</v>
+      </c>
+      <c r="H308" s="212" t="s">
+        <v>58</v>
+      </c>
+      <c r="I308" s="205" t="s">
+        <v>98</v>
+      </c>
+      <c r="J308" s="205" t="s">
+        <v>538</v>
+      </c>
+      <c r="K308" s="206" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" s="211" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A309" s="205" t="str">
+        <f t="shared" si="8"/>
+        <v>301_90002_7</v>
+      </c>
+      <c r="B309" s="206">
+        <v>301</v>
+      </c>
+      <c r="C309" s="205">
+        <v>90002</v>
+      </c>
+      <c r="D309" s="206" t="s">
+        <v>535</v>
+      </c>
+      <c r="E309" s="207" t="s">
+        <v>549</v>
+      </c>
+      <c r="F309" s="212">
+        <v>6</v>
+      </c>
+      <c r="G309" s="212" t="s">
+        <v>22</v>
+      </c>
+      <c r="H309" s="212" t="s">
+        <v>59</v>
+      </c>
+      <c r="I309" s="205" t="s">
+        <v>98</v>
+      </c>
+      <c r="J309" s="206" t="s">
+        <v>537</v>
+      </c>
+      <c r="K309" s="206" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" s="211" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A310" s="205" t="str">
+        <f>B310&amp;"_"&amp;C310&amp;"_"&amp;D310</f>
+        <v>302_90002_7</v>
+      </c>
+      <c r="B310" s="206">
+        <v>302</v>
+      </c>
+      <c r="C310" s="205">
+        <v>90002</v>
+      </c>
+      <c r="D310" s="206" t="s">
+        <v>535</v>
+      </c>
+      <c r="E310" s="207" t="s">
+        <v>550</v>
+      </c>
+      <c r="F310" s="212">
+        <v>12</v>
+      </c>
+      <c r="G310" s="212" t="s">
+        <v>24</v>
+      </c>
+      <c r="H310" s="212" t="s">
+        <v>60</v>
+      </c>
+      <c r="I310" s="205" t="s">
+        <v>98</v>
+      </c>
+      <c r="J310" s="205" t="s">
+        <v>538</v>
+      </c>
+      <c r="K310" s="206" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" s="211" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A311" s="205" t="str">
+        <f>B311&amp;"_"&amp;C311&amp;"_"&amp;D311</f>
+        <v>303_90002_7</v>
+      </c>
+      <c r="B311" s="206">
+        <v>303</v>
+      </c>
+      <c r="C311" s="205">
+        <v>90002</v>
+      </c>
+      <c r="D311" s="206" t="s">
+        <v>535</v>
+      </c>
+      <c r="E311" s="207" t="s">
+        <v>551</v>
+      </c>
+      <c r="F311" s="212">
+        <v>25</v>
+      </c>
+      <c r="G311" s="212" t="s">
+        <v>26</v>
+      </c>
+      <c r="H311" s="212" t="s">
+        <v>61</v>
+      </c>
+      <c r="I311" s="205" t="s">
+        <v>98</v>
+      </c>
+      <c r="J311" s="206" t="s">
+        <v>537</v>
+      </c>
+      <c r="K311" s="206" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A312" s="164" t="str">
         <f t="shared" si="6"/>
         <v>101_90002_10</v>
       </c>
-      <c r="B290" s="165">
+      <c r="B312" s="165">
         <v>101</v>
       </c>
-      <c r="C290" s="164">
-        <v>90002</v>
-      </c>
-      <c r="D290" s="164">
+      <c r="C312" s="164">
+        <v>90002</v>
+      </c>
+      <c r="D312" s="164">
         <v>10</v>
       </c>
-      <c r="E290" s="166" t="s">
+      <c r="E312" s="166" t="s">
         <v>309</v>
       </c>
-      <c r="F290" s="167">
+      <c r="F312" s="167">
         <v>6</v>
       </c>
-      <c r="G290" s="168" t="s">
+      <c r="G312" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="H290" s="169" t="s">
+      <c r="H312" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="I290" s="164" t="s">
-        <v>98</v>
-      </c>
-      <c r="J290" s="165" t="s">
+      <c r="I312" s="164" t="s">
+        <v>98</v>
+      </c>
+      <c r="J312" s="165" t="s">
         <v>321</v>
       </c>
-      <c r="K290" s="165" t="s">
+      <c r="K312" s="165" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="291" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A291" s="164" t="str">
+    <row r="313" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A313" s="164" t="str">
         <f t="shared" si="6"/>
         <v>102_90002_10</v>
       </c>
-      <c r="B291" s="165">
+      <c r="B313" s="165">
         <v>102</v>
       </c>
-      <c r="C291" s="164">
-        <v>90002</v>
-      </c>
-      <c r="D291" s="164">
+      <c r="C313" s="164">
+        <v>90002</v>
+      </c>
+      <c r="D313" s="164">
         <v>10</v>
       </c>
-      <c r="E291" s="166" t="s">
+      <c r="E313" s="166" t="s">
         <v>310</v>
       </c>
-      <c r="F291" s="167">
+      <c r="F313" s="167">
         <v>30</v>
       </c>
-      <c r="G291" s="168" t="s">
+      <c r="G313" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="H291" s="169" t="s">
+      <c r="H313" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="I291" s="164" t="s">
-        <v>98</v>
-      </c>
-      <c r="J291" s="165" t="s">
+      <c r="I313" s="164" t="s">
+        <v>98</v>
+      </c>
+      <c r="J313" s="165" t="s">
         <v>321</v>
       </c>
-      <c r="K291" s="165" t="s">
+      <c r="K313" s="165" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="292" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A292" s="164" t="str">
+    <row r="314" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A314" s="164" t="str">
         <f t="shared" si="6"/>
         <v>103_90002_10</v>
       </c>
-      <c r="B292" s="165">
-        <v>103</v>
-      </c>
-      <c r="C292" s="164">
-        <v>90002</v>
-      </c>
-      <c r="D292" s="164">
+      <c r="B314" s="165">
+        <v>103</v>
+      </c>
+      <c r="C314" s="164">
+        <v>90002</v>
+      </c>
+      <c r="D314" s="164">
         <v>10</v>
       </c>
-      <c r="E292" s="166" t="s">
+      <c r="E314" s="166" t="s">
         <v>311</v>
       </c>
-      <c r="F292" s="167">
-        <v>98</v>
-      </c>
-      <c r="G292" s="168" t="s">
+      <c r="F314" s="167">
+        <v>98</v>
+      </c>
+      <c r="G314" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="H292" s="169" t="s">
+      <c r="H314" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="I292" s="164" t="s">
-        <v>98</v>
-      </c>
-      <c r="J292" s="165" t="s">
+      <c r="I314" s="164" t="s">
+        <v>98</v>
+      </c>
+      <c r="J314" s="165" t="s">
         <v>321</v>
       </c>
-      <c r="K292" s="165" t="s">
+      <c r="K314" s="165" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="293" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A293" s="164" t="str">
+    <row r="315" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A315" s="164" t="str">
         <f t="shared" si="6"/>
         <v>104_90002_10</v>
       </c>
-      <c r="B293" s="165">
+      <c r="B315" s="165">
         <v>104</v>
       </c>
-      <c r="C293" s="164">
-        <v>90002</v>
-      </c>
-      <c r="D293" s="164">
+      <c r="C315" s="164">
+        <v>90002</v>
+      </c>
+      <c r="D315" s="164">
         <v>10</v>
       </c>
-      <c r="E293" s="166" t="s">
+      <c r="E315" s="166" t="s">
         <v>312</v>
       </c>
-      <c r="F293" s="167">
+      <c r="F315" s="167">
         <v>168</v>
       </c>
-      <c r="G293" s="168" t="s">
+      <c r="G315" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="H293" s="169" t="s">
+      <c r="H315" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="I293" s="164" t="s">
-        <v>98</v>
-      </c>
-      <c r="J293" s="165" t="s">
+      <c r="I315" s="164" t="s">
+        <v>98</v>
+      </c>
+      <c r="J315" s="165" t="s">
         <v>321</v>
       </c>
-      <c r="K293" s="165" t="s">
+      <c r="K315" s="165" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="294" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A294" s="164" t="str">
+    <row r="316" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A316" s="164" t="str">
         <f t="shared" si="6"/>
         <v>105_90002_10</v>
       </c>
-      <c r="B294" s="165">
+      <c r="B316" s="165">
         <v>105</v>
       </c>
-      <c r="C294" s="164">
-        <v>90002</v>
-      </c>
-      <c r="D294" s="164">
+      <c r="C316" s="164">
+        <v>90002</v>
+      </c>
+      <c r="D316" s="164">
         <v>10</v>
       </c>
-      <c r="E294" s="166" t="s">
+      <c r="E316" s="166" t="s">
         <v>313</v>
       </c>
-      <c r="F294" s="167">
+      <c r="F316" s="167">
         <v>238</v>
       </c>
-      <c r="G294" s="168" t="s">
+      <c r="G316" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="H294" s="169" t="s">
+      <c r="H316" s="169" t="s">
         <v>55</v>
       </c>
-      <c r="I294" s="164" t="s">
-        <v>98</v>
-      </c>
-      <c r="J294" s="165" t="s">
+      <c r="I316" s="164" t="s">
+        <v>98</v>
+      </c>
+      <c r="J316" s="165" t="s">
         <v>321</v>
       </c>
-      <c r="K294" s="165" t="s">
+      <c r="K316" s="165" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="295" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A295" s="164" t="str">
+    <row r="317" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A317" s="164" t="str">
         <f t="shared" si="6"/>
         <v>106_90002_10</v>
       </c>
-      <c r="B295" s="165">
+      <c r="B317" s="165">
         <v>106</v>
       </c>
-      <c r="C295" s="164">
-        <v>90002</v>
-      </c>
-      <c r="D295" s="164">
+      <c r="C317" s="164">
+        <v>90002</v>
+      </c>
+      <c r="D317" s="164">
         <v>10</v>
       </c>
-      <c r="E295" s="166" t="s">
+      <c r="E317" s="166" t="s">
         <v>314</v>
       </c>
-      <c r="F295" s="167">
+      <c r="F317" s="167">
         <v>328</v>
       </c>
-      <c r="G295" s="168" t="s">
+      <c r="G317" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="H295" s="169" t="s">
+      <c r="H317" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="I295" s="164" t="s">
-        <v>98</v>
-      </c>
-      <c r="J295" s="165" t="s">
+      <c r="I317" s="164" t="s">
+        <v>98</v>
+      </c>
+      <c r="J317" s="165" t="s">
         <v>321</v>
       </c>
-      <c r="K295" s="165" t="s">
+      <c r="K317" s="165" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="296" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A296" s="164" t="str">
+    <row r="318" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A318" s="164" t="str">
         <f t="shared" si="6"/>
         <v>107_90002_10</v>
       </c>
-      <c r="B296" s="165">
+      <c r="B318" s="165">
         <v>107</v>
       </c>
-      <c r="C296" s="164">
-        <v>90002</v>
-      </c>
-      <c r="D296" s="164">
+      <c r="C318" s="164">
+        <v>90002</v>
+      </c>
+      <c r="D318" s="164">
         <v>10</v>
       </c>
-      <c r="E296" s="166" t="s">
+      <c r="E318" s="166" t="s">
         <v>315</v>
       </c>
-      <c r="F296" s="167">
+      <c r="F318" s="167">
         <v>648</v>
       </c>
-      <c r="G296" s="168" t="s">
+      <c r="G318" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="H296" s="169" t="s">
+      <c r="H318" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="I296" s="164" t="s">
-        <v>98</v>
-      </c>
-      <c r="J296" s="165" t="s">
+      <c r="I318" s="164" t="s">
+        <v>98</v>
+      </c>
+      <c r="J318" s="165" t="s">
         <v>321</v>
       </c>
-      <c r="K296" s="165" t="s">
+      <c r="K318" s="165" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="297" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A297" s="164" t="str">
+    <row r="319" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A319" s="164" t="str">
         <f t="shared" si="6"/>
         <v>201_90002_10</v>
       </c>
-      <c r="B297" s="165">
+      <c r="B319" s="165">
         <v>201</v>
       </c>
-      <c r="C297" s="164">
-        <v>90002</v>
-      </c>
-      <c r="D297" s="164">
+      <c r="C319" s="164">
+        <v>90002</v>
+      </c>
+      <c r="D319" s="164">
         <v>10</v>
       </c>
-      <c r="E297" s="166" t="s">
+      <c r="E319" s="166" t="s">
         <v>316</v>
       </c>
-      <c r="F297" s="170">
+      <c r="F319" s="170">
         <v>88</v>
       </c>
-      <c r="G297" s="170" t="s">
+      <c r="G319" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="H297" s="170" t="s">
+      <c r="H319" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="I297" s="164" t="s">
-        <v>98</v>
-      </c>
-      <c r="J297" s="165" t="s">
+      <c r="I319" s="164" t="s">
+        <v>98</v>
+      </c>
+      <c r="J319" s="165" t="s">
         <v>321</v>
       </c>
-      <c r="K297" s="165" t="s">
+      <c r="K319" s="165" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="298" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A298" s="164" t="str">
+    <row r="320" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A320" s="164" t="str">
         <f t="shared" si="6"/>
         <v>301_90002_10</v>
       </c>
-      <c r="B298" s="165">
+      <c r="B320" s="165">
         <v>301</v>
       </c>
-      <c r="C298" s="164">
-        <v>90002</v>
-      </c>
-      <c r="D298" s="164">
+      <c r="C320" s="164">
+        <v>90002</v>
+      </c>
+      <c r="D320" s="164">
         <v>10</v>
       </c>
-      <c r="E298" s="166" t="s">
+      <c r="E320" s="166" t="s">
         <v>317</v>
       </c>
-      <c r="F298" s="170">
+      <c r="F320" s="170">
         <v>6</v>
       </c>
-      <c r="G298" s="170" t="s">
+      <c r="G320" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="H298" s="170" t="s">
+      <c r="H320" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="I298" s="164" t="s">
-        <v>98</v>
-      </c>
-      <c r="J298" s="165" t="s">
+      <c r="I320" s="164" t="s">
+        <v>98</v>
+      </c>
+      <c r="J320" s="165" t="s">
         <v>321</v>
       </c>
-      <c r="K298" s="165" t="s">
+      <c r="K320" s="165" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="299" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A299" s="164" t="str">
+    <row r="321" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A321" s="164" t="str">
         <f t="shared" si="6"/>
         <v>302_90002_10</v>
       </c>
-      <c r="B299" s="165">
+      <c r="B321" s="165">
         <v>302</v>
       </c>
-      <c r="C299" s="164">
-        <v>90002</v>
-      </c>
-      <c r="D299" s="164">
+      <c r="C321" s="164">
+        <v>90002</v>
+      </c>
+      <c r="D321" s="164">
         <v>10</v>
       </c>
-      <c r="E299" s="166" t="s">
+      <c r="E321" s="166" t="s">
         <v>318</v>
       </c>
-      <c r="F299" s="170">
+      <c r="F321" s="170">
         <v>12</v>
       </c>
-      <c r="G299" s="170" t="s">
+      <c r="G321" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="H299" s="170" t="s">
+      <c r="H321" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="I299" s="164" t="s">
-        <v>98</v>
-      </c>
-      <c r="J299" s="165" t="s">
+      <c r="I321" s="164" t="s">
+        <v>98</v>
+      </c>
+      <c r="J321" s="165" t="s">
         <v>321</v>
       </c>
-      <c r="K299" s="165" t="s">
+      <c r="K321" s="165" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="300" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A300" s="164" t="str">
+    <row r="322" spans="1:11" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A322" s="164" t="str">
         <f t="shared" si="6"/>
         <v>303_90002_10</v>
       </c>
-      <c r="B300" s="165">
+      <c r="B322" s="165">
         <v>303</v>
       </c>
-      <c r="C300" s="164">
-        <v>90002</v>
-      </c>
-      <c r="D300" s="164">
+      <c r="C322" s="164">
+        <v>90002</v>
+      </c>
+      <c r="D322" s="164">
         <v>10</v>
       </c>
-      <c r="E300" s="166" t="s">
+      <c r="E322" s="166" t="s">
         <v>319</v>
       </c>
-      <c r="F300" s="170">
+      <c r="F322" s="170">
         <v>25</v>
       </c>
-      <c r="G300" s="170" t="s">
+      <c r="G322" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="H300" s="170" t="s">
+      <c r="H322" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="I300" s="164" t="s">
-        <v>98</v>
-      </c>
-      <c r="J300" s="165" t="s">
+      <c r="I322" s="164" t="s">
+        <v>98</v>
+      </c>
+      <c r="J322" s="165" t="s">
         <v>321</v>
       </c>
-      <c r="K300" s="165" t="s">
+      <c r="K322" s="165" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="301" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A301" s="72" t="str">
+    <row r="323" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A323" s="72" t="str">
         <f t="shared" si="6"/>
         <v>101_90002_11</v>
       </c>
-      <c r="B301" s="73">
+      <c r="B323" s="73">
         <v>101</v>
       </c>
-      <c r="C301" s="72">
-        <v>90002</v>
-      </c>
-      <c r="D301" s="72">
+      <c r="C323" s="72">
+        <v>90002</v>
+      </c>
+      <c r="D323" s="72">
         <v>11</v>
       </c>
-      <c r="E301" s="171" t="s">
+      <c r="E323" s="171" t="s">
         <v>506</v>
       </c>
-      <c r="F301" s="75">
+      <c r="F323" s="75">
         <v>6</v>
       </c>
-      <c r="G301" s="76" t="s">
+      <c r="G323" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="H301" s="77" t="s">
+      <c r="H323" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="I301" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="J301" s="73" t="s">
+      <c r="I323" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="J323" s="73" t="s">
         <v>321</v>
       </c>
-      <c r="K301" s="73" t="s">
+      <c r="K323" s="73" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="302" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A302" s="72" t="str">
+    <row r="324" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A324" s="72" t="str">
         <f t="shared" si="6"/>
         <v>102_90002_11</v>
       </c>
-      <c r="B302" s="73">
+      <c r="B324" s="73">
         <v>102</v>
       </c>
-      <c r="C302" s="72">
-        <v>90002</v>
-      </c>
-      <c r="D302" s="72">
+      <c r="C324" s="72">
+        <v>90002</v>
+      </c>
+      <c r="D324" s="72">
         <v>11</v>
       </c>
-      <c r="E302" s="171" t="s">
+      <c r="E324" s="171" t="s">
         <v>507</v>
       </c>
-      <c r="F302" s="75">
+      <c r="F324" s="75">
         <v>30</v>
       </c>
-      <c r="G302" s="76" t="s">
+      <c r="G324" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="H302" s="77" t="s">
+      <c r="H324" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="I302" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="J302" s="73" t="s">
+      <c r="I324" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="J324" s="73" t="s">
         <v>321</v>
       </c>
-      <c r="K302" s="73" t="s">
+      <c r="K324" s="73" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="303" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A303" s="72" t="str">
+    <row r="325" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A325" s="72" t="str">
         <f t="shared" si="6"/>
         <v>103_90002_11</v>
       </c>
-      <c r="B303" s="73">
-        <v>103</v>
-      </c>
-      <c r="C303" s="72">
-        <v>90002</v>
-      </c>
-      <c r="D303" s="72">
+      <c r="B325" s="73">
+        <v>103</v>
+      </c>
+      <c r="C325" s="72">
+        <v>90002</v>
+      </c>
+      <c r="D325" s="72">
         <v>11</v>
       </c>
-      <c r="E303" s="171" t="s">
+      <c r="E325" s="171" t="s">
         <v>508</v>
       </c>
-      <c r="F303" s="75">
-        <v>98</v>
-      </c>
-      <c r="G303" s="76" t="s">
+      <c r="F325" s="75">
+        <v>98</v>
+      </c>
+      <c r="G325" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="H303" s="77" t="s">
+      <c r="H325" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="I303" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="J303" s="73" t="s">
+      <c r="I325" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="J325" s="73" t="s">
         <v>321</v>
       </c>
-      <c r="K303" s="73" t="s">
+      <c r="K325" s="73" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="304" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A304" s="72" t="str">
+    <row r="326" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A326" s="72" t="str">
         <f t="shared" si="6"/>
         <v>104_90002_11</v>
       </c>
-      <c r="B304" s="73">
+      <c r="B326" s="73">
         <v>104</v>
       </c>
-      <c r="C304" s="72">
-        <v>90002</v>
-      </c>
-      <c r="D304" s="72">
+      <c r="C326" s="72">
+        <v>90002</v>
+      </c>
+      <c r="D326" s="72">
         <v>11</v>
       </c>
-      <c r="E304" s="171" t="s">
+      <c r="E326" s="171" t="s">
         <v>509</v>
       </c>
-      <c r="F304" s="75">
+      <c r="F326" s="75">
         <v>168</v>
       </c>
-      <c r="G304" s="76" t="s">
+      <c r="G326" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H304" s="77" t="s">
+      <c r="H326" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="I304" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="J304" s="73" t="s">
+      <c r="I326" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="J326" s="73" t="s">
         <v>321</v>
       </c>
-      <c r="K304" s="73" t="s">
+      <c r="K326" s="73" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="305" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A305" s="72" t="str">
+    <row r="327" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A327" s="72" t="str">
         <f t="shared" si="6"/>
         <v>105_90002_11</v>
       </c>
-      <c r="B305" s="73">
+      <c r="B327" s="73">
         <v>105</v>
       </c>
-      <c r="C305" s="72">
-        <v>90002</v>
-      </c>
-      <c r="D305" s="72">
+      <c r="C327" s="72">
+        <v>90002</v>
+      </c>
+      <c r="D327" s="72">
         <v>11</v>
       </c>
-      <c r="E305" s="171" t="s">
+      <c r="E327" s="171" t="s">
         <v>510</v>
       </c>
-      <c r="F305" s="75">
+      <c r="F327" s="75">
         <v>238</v>
       </c>
-      <c r="G305" s="76" t="s">
+      <c r="G327" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="H305" s="77" t="s">
+      <c r="H327" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="I305" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="J305" s="73" t="s">
+      <c r="I327" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="J327" s="73" t="s">
         <v>321</v>
       </c>
-      <c r="K305" s="73" t="s">
+      <c r="K327" s="73" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="306" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A306" s="72" t="str">
+    <row r="328" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A328" s="72" t="str">
         <f t="shared" si="6"/>
         <v>106_90002_11</v>
       </c>
-      <c r="B306" s="73">
+      <c r="B328" s="73">
         <v>106</v>
       </c>
-      <c r="C306" s="72">
-        <v>90002</v>
-      </c>
-      <c r="D306" s="72">
+      <c r="C328" s="72">
+        <v>90002</v>
+      </c>
+      <c r="D328" s="72">
         <v>11</v>
       </c>
-      <c r="E306" s="171" t="s">
+      <c r="E328" s="171" t="s">
         <v>511</v>
       </c>
-      <c r="F306" s="75">
+      <c r="F328" s="75">
         <v>328</v>
       </c>
-      <c r="G306" s="76" t="s">
+      <c r="G328" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="H306" s="77" t="s">
+      <c r="H328" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="I306" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="J306" s="73" t="s">
+      <c r="I328" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="J328" s="73" t="s">
         <v>321</v>
       </c>
-      <c r="K306" s="73" t="s">
+      <c r="K328" s="73" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="307" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A307" s="72" t="str">
+    <row r="329" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A329" s="72" t="str">
         <f t="shared" si="6"/>
         <v>107_90002_11</v>
       </c>
-      <c r="B307" s="73">
+      <c r="B329" s="73">
         <v>107</v>
       </c>
-      <c r="C307" s="72">
-        <v>90002</v>
-      </c>
-      <c r="D307" s="72">
+      <c r="C329" s="72">
+        <v>90002</v>
+      </c>
+      <c r="D329" s="72">
         <v>11</v>
       </c>
-      <c r="E307" s="171" t="s">
+      <c r="E329" s="171" t="s">
         <v>512</v>
       </c>
-      <c r="F307" s="75">
+      <c r="F329" s="75">
         <v>648</v>
       </c>
-      <c r="G307" s="76" t="s">
+      <c r="G329" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="H307" s="77" t="s">
+      <c r="H329" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="I307" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="J307" s="73" t="s">
+      <c r="I329" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="J329" s="73" t="s">
         <v>321</v>
       </c>
-      <c r="K307" s="73" t="s">
+      <c r="K329" s="73" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="308" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A308" s="72" t="str">
+    <row r="330" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A330" s="72" t="str">
         <f t="shared" si="6"/>
         <v>201_90002_11</v>
       </c>
-      <c r="B308" s="73">
+      <c r="B330" s="73">
         <v>201</v>
       </c>
-      <c r="C308" s="72">
-        <v>90002</v>
-      </c>
-      <c r="D308" s="72">
+      <c r="C330" s="72">
+        <v>90002</v>
+      </c>
+      <c r="D330" s="72">
         <v>11</v>
       </c>
-      <c r="E308" s="171" t="s">
+      <c r="E330" s="171" t="s">
         <v>513</v>
       </c>
-      <c r="F308" s="78">
+      <c r="F330" s="78">
         <v>88</v>
       </c>
-      <c r="G308" s="78" t="s">
+      <c r="G330" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="H308" s="78" t="s">
+      <c r="H330" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="I308" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="J308" s="73" t="s">
+      <c r="I330" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="J330" s="73" t="s">
         <v>321</v>
       </c>
-      <c r="K308" s="73" t="s">
+      <c r="K330" s="73" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="309" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A309" s="72" t="str">
+    <row r="331" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A331" s="72" t="str">
         <f t="shared" si="6"/>
         <v>301_90002_11</v>
       </c>
-      <c r="B309" s="73">
+      <c r="B331" s="73">
         <v>301</v>
       </c>
-      <c r="C309" s="72">
-        <v>90002</v>
-      </c>
-      <c r="D309" s="72">
+      <c r="C331" s="72">
+        <v>90002</v>
+      </c>
+      <c r="D331" s="72">
         <v>11</v>
       </c>
-      <c r="E309" s="171" t="s">
+      <c r="E331" s="171" t="s">
         <v>514</v>
       </c>
-      <c r="F309" s="78">
+      <c r="F331" s="78">
         <v>6</v>
       </c>
-      <c r="G309" s="78" t="s">
+      <c r="G331" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="H309" s="78" t="s">
+      <c r="H331" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="I309" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="J309" s="73" t="s">
+      <c r="I331" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="J331" s="73" t="s">
         <v>321</v>
       </c>
-      <c r="K309" s="73" t="s">
+      <c r="K331" s="73" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="310" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A310" s="72" t="str">
+    <row r="332" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A332" s="72" t="str">
         <f t="shared" si="6"/>
         <v>302_90002_11</v>
       </c>
-      <c r="B310" s="73">
+      <c r="B332" s="73">
         <v>302</v>
       </c>
-      <c r="C310" s="72">
-        <v>90002</v>
-      </c>
-      <c r="D310" s="72">
+      <c r="C332" s="72">
+        <v>90002</v>
+      </c>
+      <c r="D332" s="72">
         <v>11</v>
       </c>
-      <c r="E310" s="171" t="s">
+      <c r="E332" s="171" t="s">
         <v>515</v>
       </c>
-      <c r="F310" s="78">
+      <c r="F332" s="78">
         <v>12</v>
       </c>
-      <c r="G310" s="78" t="s">
+      <c r="G332" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="H310" s="78" t="s">
+      <c r="H332" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="I310" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="J310" s="73" t="s">
+      <c r="I332" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="J332" s="73" t="s">
         <v>321</v>
       </c>
-      <c r="K310" s="73" t="s">
+      <c r="K332" s="73" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="311" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A311" s="72" t="str">
+    <row r="333" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A333" s="72" t="str">
         <f t="shared" si="6"/>
         <v>303_90002_11</v>
       </c>
-      <c r="B311" s="73">
+      <c r="B333" s="73">
         <v>303</v>
       </c>
-      <c r="C311" s="72">
-        <v>90002</v>
-      </c>
-      <c r="D311" s="72">
+      <c r="C333" s="72">
+        <v>90002</v>
+      </c>
+      <c r="D333" s="72">
         <v>11</v>
       </c>
-      <c r="E311" s="171" t="s">
+      <c r="E333" s="171" t="s">
         <v>516</v>
       </c>
-      <c r="F311" s="78">
+      <c r="F333" s="78">
         <v>25</v>
       </c>
-      <c r="G311" s="78" t="s">
+      <c r="G333" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="H311" s="78" t="s">
+      <c r="H333" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="I311" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="J311" s="73" t="s">
+      <c r="I333" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="J333" s="73" t="s">
         <v>321</v>
       </c>
-      <c r="K311" s="73" t="s">
+      <c r="K333" s="73" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="312" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A312" s="124" t="str">
+    <row r="334" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A334" s="124" t="str">
         <f t="shared" si="6"/>
         <v>101_90002_12</v>
       </c>
-      <c r="B312" s="125">
+      <c r="B334" s="125">
         <v>101</v>
       </c>
-      <c r="C312" s="124">
-        <v>90002</v>
-      </c>
-      <c r="D312" s="124">
+      <c r="C334" s="124">
+        <v>90002</v>
+      </c>
+      <c r="D334" s="124">
         <v>12</v>
       </c>
-      <c r="E312" s="171" t="s">
+      <c r="E334" s="171" t="s">
         <v>323</v>
       </c>
-      <c r="F312" s="127">
+      <c r="F334" s="127">
         <v>6</v>
       </c>
-      <c r="G312" s="128" t="s">
+      <c r="G334" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="H312" s="129" t="s">
+      <c r="H334" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="I312" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="J312" s="125" t="s">
+      <c r="I334" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="J334" s="125" t="s">
         <v>321</v>
       </c>
-      <c r="K312" s="125" t="s">
+      <c r="K334" s="125" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="313" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A313" s="124" t="str">
+    <row r="335" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A335" s="124" t="str">
         <f t="shared" si="6"/>
         <v>102_90002_12</v>
       </c>
-      <c r="B313" s="125">
+      <c r="B335" s="125">
         <v>102</v>
       </c>
-      <c r="C313" s="124">
-        <v>90002</v>
-      </c>
-      <c r="D313" s="124">
+      <c r="C335" s="124">
+        <v>90002</v>
+      </c>
+      <c r="D335" s="124">
         <v>12</v>
       </c>
-      <c r="E313" s="171" t="s">
+      <c r="E335" s="171" t="s">
         <v>324</v>
       </c>
-      <c r="F313" s="127">
+      <c r="F335" s="127">
         <v>30</v>
       </c>
-      <c r="G313" s="128" t="s">
+      <c r="G335" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="H313" s="129" t="s">
+      <c r="H335" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="I313" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="J313" s="125" t="s">
+      <c r="I335" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="J335" s="125" t="s">
         <v>321</v>
       </c>
-      <c r="K313" s="125" t="s">
+      <c r="K335" s="125" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="314" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A314" s="124" t="str">
+    <row r="336" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A336" s="124" t="str">
         <f t="shared" si="6"/>
         <v>103_90002_12</v>
       </c>
-      <c r="B314" s="125">
-        <v>103</v>
-      </c>
-      <c r="C314" s="124">
-        <v>90002</v>
-      </c>
-      <c r="D314" s="124">
+      <c r="B336" s="125">
+        <v>103</v>
+      </c>
+      <c r="C336" s="124">
+        <v>90002</v>
+      </c>
+      <c r="D336" s="124">
         <v>12</v>
       </c>
-      <c r="E314" s="171" t="s">
+      <c r="E336" s="171" t="s">
         <v>325</v>
       </c>
-      <c r="F314" s="127">
-        <v>98</v>
-      </c>
-      <c r="G314" s="128" t="s">
+      <c r="F336" s="127">
+        <v>98</v>
+      </c>
+      <c r="G336" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="H314" s="129" t="s">
+      <c r="H336" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="I314" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="J314" s="125" t="s">
+      <c r="I336" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="J336" s="125" t="s">
         <v>321</v>
       </c>
-      <c r="K314" s="125" t="s">
+      <c r="K336" s="125" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="315" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A315" s="124" t="str">
+    <row r="337" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A337" s="124" t="str">
         <f t="shared" si="6"/>
         <v>104_90002_12</v>
       </c>
-      <c r="B315" s="125">
+      <c r="B337" s="125">
         <v>104</v>
       </c>
-      <c r="C315" s="124">
-        <v>90002</v>
-      </c>
-      <c r="D315" s="124">
+      <c r="C337" s="124">
+        <v>90002</v>
+      </c>
+      <c r="D337" s="124">
         <v>12</v>
       </c>
-      <c r="E315" s="171" t="s">
+      <c r="E337" s="171" t="s">
         <v>326</v>
       </c>
-      <c r="F315" s="127">
+      <c r="F337" s="127">
         <v>168</v>
       </c>
-      <c r="G315" s="128" t="s">
+      <c r="G337" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="H315" s="129" t="s">
+      <c r="H337" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="I315" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="J315" s="125" t="s">
+      <c r="I337" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="J337" s="125" t="s">
         <v>321</v>
       </c>
-      <c r="K315" s="125" t="s">
+      <c r="K337" s="125" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="316" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A316" s="124" t="str">
+    <row r="338" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A338" s="124" t="str">
         <f t="shared" si="6"/>
         <v>105_90002_12</v>
       </c>
-      <c r="B316" s="125">
+      <c r="B338" s="125">
         <v>105</v>
       </c>
-      <c r="C316" s="124">
-        <v>90002</v>
-      </c>
-      <c r="D316" s="124">
+      <c r="C338" s="124">
+        <v>90002</v>
+      </c>
+      <c r="D338" s="124">
         <v>12</v>
       </c>
-      <c r="E316" s="171" t="s">
+      <c r="E338" s="171" t="s">
         <v>327</v>
       </c>
-      <c r="F316" s="127">
+      <c r="F338" s="127">
         <v>238</v>
       </c>
-      <c r="G316" s="128" t="s">
+      <c r="G338" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="H316" s="129" t="s">
+      <c r="H338" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="I316" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="J316" s="125" t="s">
+      <c r="I338" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="J338" s="125" t="s">
         <v>321</v>
       </c>
-      <c r="K316" s="125" t="s">
+      <c r="K338" s="125" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="317" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A317" s="124" t="str">
+    <row r="339" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A339" s="124" t="str">
         <f t="shared" si="6"/>
         <v>106_90002_12</v>
       </c>
-      <c r="B317" s="125">
+      <c r="B339" s="125">
         <v>106</v>
       </c>
-      <c r="C317" s="124">
-        <v>90002</v>
-      </c>
-      <c r="D317" s="124">
+      <c r="C339" s="124">
+        <v>90002</v>
+      </c>
+      <c r="D339" s="124">
         <v>12</v>
       </c>
-      <c r="E317" s="171" t="s">
+      <c r="E339" s="171" t="s">
         <v>328</v>
       </c>
-      <c r="F317" s="127">
+      <c r="F339" s="127">
         <v>328</v>
       </c>
-      <c r="G317" s="128" t="s">
+      <c r="G339" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="H317" s="129" t="s">
+      <c r="H339" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="I317" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="J317" s="125" t="s">
+      <c r="I339" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="J339" s="125" t="s">
         <v>321</v>
       </c>
-      <c r="K317" s="125" t="s">
+      <c r="K339" s="125" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="318" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A318" s="124" t="str">
+    <row r="340" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A340" s="124" t="str">
         <f t="shared" si="6"/>
         <v>107_90002_12</v>
       </c>
-      <c r="B318" s="125">
+      <c r="B340" s="125">
         <v>107</v>
       </c>
-      <c r="C318" s="124">
-        <v>90002</v>
-      </c>
-      <c r="D318" s="124">
+      <c r="C340" s="124">
+        <v>90002</v>
+      </c>
+      <c r="D340" s="124">
         <v>12</v>
       </c>
-      <c r="E318" s="171" t="s">
+      <c r="E340" s="171" t="s">
         <v>329</v>
       </c>
-      <c r="F318" s="127">
+      <c r="F340" s="127">
         <v>648</v>
       </c>
-      <c r="G318" s="128" t="s">
+      <c r="G340" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="H318" s="129" t="s">
+      <c r="H340" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="I318" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="J318" s="125" t="s">
+      <c r="I340" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="J340" s="125" t="s">
         <v>321</v>
       </c>
-      <c r="K318" s="125" t="s">
+      <c r="K340" s="125" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="319" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A319" s="124" t="str">
+    <row r="341" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A341" s="124" t="str">
         <f t="shared" si="6"/>
         <v>201_90002_12</v>
       </c>
-      <c r="B319" s="125">
+      <c r="B341" s="125">
         <v>201</v>
       </c>
-      <c r="C319" s="124">
-        <v>90002</v>
-      </c>
-      <c r="D319" s="124">
+      <c r="C341" s="124">
+        <v>90002</v>
+      </c>
+      <c r="D341" s="124">
         <v>12</v>
       </c>
-      <c r="E319" s="171" t="s">
+      <c r="E341" s="171" t="s">
         <v>330</v>
       </c>
-      <c r="F319" s="130">
+      <c r="F341" s="130">
         <v>88</v>
       </c>
-      <c r="G319" s="130" t="s">
+      <c r="G341" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="H319" s="130" t="s">
+      <c r="H341" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="I319" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="J319" s="125" t="s">
+      <c r="I341" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="J341" s="125" t="s">
         <v>321</v>
       </c>
-      <c r="K319" s="125" t="s">
+      <c r="K341" s="125" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="320" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A320" s="124" t="str">
+    <row r="342" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A342" s="124" t="str">
         <f t="shared" si="6"/>
         <v>301_90002_12</v>
       </c>
-      <c r="B320" s="125">
+      <c r="B342" s="125">
         <v>301</v>
       </c>
-      <c r="C320" s="124">
-        <v>90002</v>
-      </c>
-      <c r="D320" s="124">
+      <c r="C342" s="124">
+        <v>90002</v>
+      </c>
+      <c r="D342" s="124">
         <v>12</v>
       </c>
-      <c r="E320" s="171" t="s">
+      <c r="E342" s="171" t="s">
         <v>331</v>
       </c>
-      <c r="F320" s="130">
+      <c r="F342" s="130">
         <v>6</v>
       </c>
-      <c r="G320" s="130" t="s">
+      <c r="G342" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="H320" s="130" t="s">
+      <c r="H342" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="I320" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="J320" s="125" t="s">
+      <c r="I342" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="J342" s="125" t="s">
         <v>321</v>
       </c>
-      <c r="K320" s="125" t="s">
+      <c r="K342" s="125" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="321" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A321" s="124" t="str">
+    <row r="343" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A343" s="124" t="str">
         <f t="shared" si="6"/>
         <v>302_90002_12</v>
       </c>
-      <c r="B321" s="125">
+      <c r="B343" s="125">
         <v>302</v>
       </c>
-      <c r="C321" s="124">
-        <v>90002</v>
-      </c>
-      <c r="D321" s="124">
+      <c r="C343" s="124">
+        <v>90002</v>
+      </c>
+      <c r="D343" s="124">
         <v>12</v>
       </c>
-      <c r="E321" s="171" t="s">
+      <c r="E343" s="171" t="s">
         <v>332</v>
       </c>
-      <c r="F321" s="130">
+      <c r="F343" s="130">
         <v>12</v>
       </c>
-      <c r="G321" s="130" t="s">
+      <c r="G343" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="H321" s="130" t="s">
+      <c r="H343" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="I321" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="J321" s="125" t="s">
+      <c r="I343" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="J343" s="125" t="s">
         <v>321</v>
       </c>
-      <c r="K321" s="125" t="s">
+      <c r="K343" s="125" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="322" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A322" s="124" t="str">
+    <row r="344" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A344" s="124" t="str">
         <f t="shared" si="6"/>
         <v>303_90002_12</v>
       </c>
-      <c r="B322" s="125">
+      <c r="B344" s="125">
         <v>303</v>
       </c>
-      <c r="C322" s="124">
-        <v>90002</v>
-      </c>
-      <c r="D322" s="124">
+      <c r="C344" s="124">
+        <v>90002</v>
+      </c>
+      <c r="D344" s="124">
         <v>12</v>
       </c>
-      <c r="E322" s="171" t="s">
+      <c r="E344" s="171" t="s">
         <v>333</v>
       </c>
-      <c r="F322" s="130">
+      <c r="F344" s="130">
         <v>25</v>
       </c>
-      <c r="G322" s="130" t="s">
+      <c r="G344" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="H322" s="130" t="s">
+      <c r="H344" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="I322" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="J322" s="125" t="s">
+      <c r="I344" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="J344" s="125" t="s">
         <v>321</v>
       </c>
-      <c r="K322" s="125" t="s">
+      <c r="K344" s="125" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="323" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A323" s="172" t="str">
+    <row r="345" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A345" s="172" t="str">
         <f t="shared" si="6"/>
         <v>101_90002_13</v>
       </c>
-      <c r="B323" s="173">
+      <c r="B345" s="173">
         <v>101</v>
       </c>
-      <c r="C323" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D323" s="172">
+      <c r="C345" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D345" s="172">
         <v>13</v>
       </c>
-      <c r="E323" s="174" t="s">
+      <c r="E345" s="174" t="s">
         <v>335</v>
       </c>
-      <c r="F323" s="175">
+      <c r="F345" s="175">
         <v>6</v>
       </c>
-      <c r="G323" s="176" t="s">
+      <c r="G345" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="H323" s="177" t="s">
+      <c r="H345" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="I323" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J323" s="173" t="s">
+      <c r="I345" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J345" s="173" t="s">
         <v>321</v>
       </c>
-      <c r="K323" s="173" t="s">
+      <c r="K345" s="173" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="324" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A324" s="172" t="str">
+    <row r="346" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A346" s="172" t="str">
         <f t="shared" si="6"/>
         <v>102_90002_13</v>
       </c>
-      <c r="B324" s="173">
+      <c r="B346" s="173">
         <v>102</v>
       </c>
-      <c r="C324" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D324" s="172">
+      <c r="C346" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D346" s="172">
         <v>13</v>
       </c>
-      <c r="E324" s="174" t="s">
+      <c r="E346" s="174" t="s">
         <v>336</v>
       </c>
-      <c r="F324" s="175">
+      <c r="F346" s="175">
         <v>30</v>
       </c>
-      <c r="G324" s="176" t="s">
+      <c r="G346" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="H324" s="177" t="s">
+      <c r="H346" s="177" t="s">
         <v>52</v>
       </c>
-      <c r="I324" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J324" s="173" t="s">
+      <c r="I346" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J346" s="173" t="s">
         <v>321</v>
       </c>
-      <c r="K324" s="173" t="s">
+      <c r="K346" s="173" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="325" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A325" s="172" t="str">
+    <row r="347" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A347" s="172" t="str">
         <f t="shared" si="6"/>
         <v>103_90002_13</v>
       </c>
-      <c r="B325" s="173">
-        <v>103</v>
-      </c>
-      <c r="C325" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D325" s="172">
+      <c r="B347" s="173">
+        <v>103</v>
+      </c>
+      <c r="C347" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D347" s="172">
         <v>13</v>
       </c>
-      <c r="E325" s="174" t="s">
+      <c r="E347" s="174" t="s">
         <v>337</v>
       </c>
-      <c r="F325" s="175">
-        <v>98</v>
-      </c>
-      <c r="G325" s="176" t="s">
+      <c r="F347" s="175">
+        <v>98</v>
+      </c>
+      <c r="G347" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="H325" s="177" t="s">
+      <c r="H347" s="177" t="s">
         <v>53</v>
       </c>
-      <c r="I325" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J325" s="173" t="s">
+      <c r="I347" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J347" s="173" t="s">
         <v>321</v>
       </c>
-      <c r="K325" s="173" t="s">
+      <c r="K347" s="173" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="326" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A326" s="172" t="str">
+    <row r="348" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A348" s="172" t="str">
         <f t="shared" si="6"/>
         <v>104_90002_13</v>
       </c>
-      <c r="B326" s="173">
+      <c r="B348" s="173">
         <v>104</v>
       </c>
-      <c r="C326" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D326" s="172">
+      <c r="C348" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D348" s="172">
         <v>13</v>
       </c>
-      <c r="E326" s="174" t="s">
+      <c r="E348" s="174" t="s">
         <v>338</v>
       </c>
-      <c r="F326" s="175">
+      <c r="F348" s="175">
         <v>168</v>
       </c>
-      <c r="G326" s="176" t="s">
+      <c r="G348" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="H326" s="177" t="s">
+      <c r="H348" s="177" t="s">
         <v>54</v>
       </c>
-      <c r="I326" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J326" s="173" t="s">
+      <c r="I348" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J348" s="173" t="s">
         <v>321</v>
       </c>
-      <c r="K326" s="173" t="s">
+      <c r="K348" s="173" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="327" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A327" s="172" t="str">
+    <row r="349" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A349" s="172" t="str">
         <f t="shared" si="6"/>
         <v>105_90002_13</v>
       </c>
-      <c r="B327" s="173">
+      <c r="B349" s="173">
         <v>105</v>
       </c>
-      <c r="C327" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D327" s="172">
+      <c r="C349" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D349" s="172">
         <v>13</v>
       </c>
-      <c r="E327" s="174" t="s">
+      <c r="E349" s="174" t="s">
         <v>339</v>
       </c>
-      <c r="F327" s="175">
+      <c r="F349" s="175">
         <v>238</v>
       </c>
-      <c r="G327" s="176" t="s">
+      <c r="G349" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="H327" s="177" t="s">
+      <c r="H349" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="I327" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J327" s="173" t="s">
+      <c r="I349" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J349" s="173" t="s">
         <v>321</v>
       </c>
-      <c r="K327" s="173" t="s">
+      <c r="K349" s="173" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="328" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A328" s="172" t="str">
-        <f t="shared" ref="A328:A377" si="7">B328&amp;"_"&amp;C328&amp;"_"&amp;D328</f>
+    <row r="350" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A350" s="172" t="str">
+        <f t="shared" ref="A350:A399" si="9">B350&amp;"_"&amp;C350&amp;"_"&amp;D350</f>
         <v>106_90002_13</v>
       </c>
-      <c r="B328" s="173">
+      <c r="B350" s="173">
         <v>106</v>
       </c>
-      <c r="C328" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D328" s="172">
+      <c r="C350" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D350" s="172">
         <v>13</v>
       </c>
-      <c r="E328" s="174" t="s">
+      <c r="E350" s="174" t="s">
         <v>340</v>
       </c>
-      <c r="F328" s="175">
+      <c r="F350" s="175">
         <v>328</v>
       </c>
-      <c r="G328" s="176" t="s">
+      <c r="G350" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="H328" s="177" t="s">
+      <c r="H350" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="I328" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J328" s="173" t="s">
+      <c r="I350" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J350" s="173" t="s">
         <v>321</v>
       </c>
-      <c r="K328" s="173" t="s">
+      <c r="K350" s="173" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="329" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A329" s="172" t="str">
-        <f t="shared" si="7"/>
+    <row r="351" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A351" s="172" t="str">
+        <f t="shared" si="9"/>
         <v>107_90002_13</v>
       </c>
-      <c r="B329" s="173">
+      <c r="B351" s="173">
         <v>107</v>
       </c>
-      <c r="C329" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D329" s="172">
+      <c r="C351" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D351" s="172">
         <v>13</v>
       </c>
-      <c r="E329" s="174" t="s">
+      <c r="E351" s="174" t="s">
         <v>341</v>
       </c>
-      <c r="F329" s="175">
+      <c r="F351" s="175">
         <v>648</v>
       </c>
-      <c r="G329" s="176" t="s">
+      <c r="G351" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="H329" s="177" t="s">
+      <c r="H351" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="I329" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J329" s="173" t="s">
+      <c r="I351" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J351" s="173" t="s">
         <v>321</v>
       </c>
-      <c r="K329" s="173" t="s">
+      <c r="K351" s="173" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="330" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A330" s="172" t="str">
-        <f t="shared" si="7"/>
+    <row r="352" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A352" s="172" t="str">
+        <f t="shared" si="9"/>
         <v>201_90002_13</v>
       </c>
-      <c r="B330" s="173">
+      <c r="B352" s="173">
         <v>201</v>
       </c>
-      <c r="C330" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D330" s="172">
+      <c r="C352" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D352" s="172">
         <v>13</v>
       </c>
-      <c r="E330" s="174" t="s">
+      <c r="E352" s="174" t="s">
         <v>342</v>
       </c>
-      <c r="F330" s="178">
+      <c r="F352" s="178">
         <v>88</v>
       </c>
-      <c r="G330" s="178" t="s">
+      <c r="G352" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="H330" s="178" t="s">
+      <c r="H352" s="178" t="s">
         <v>58</v>
       </c>
-      <c r="I330" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J330" s="173" t="s">
+      <c r="I352" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J352" s="173" t="s">
         <v>321</v>
       </c>
-      <c r="K330" s="173" t="s">
+      <c r="K352" s="173" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="331" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A331" s="172" t="str">
-        <f t="shared" si="7"/>
+    <row r="353" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A353" s="172" t="str">
+        <f t="shared" si="9"/>
         <v>301_90002_13</v>
       </c>
-      <c r="B331" s="173">
+      <c r="B353" s="173">
         <v>301</v>
       </c>
-      <c r="C331" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D331" s="172">
+      <c r="C353" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D353" s="172">
         <v>13</v>
       </c>
-      <c r="E331" s="174" t="s">
+      <c r="E353" s="174" t="s">
         <v>343</v>
       </c>
-      <c r="F331" s="178">
+      <c r="F353" s="178">
         <v>6</v>
       </c>
-      <c r="G331" s="178" t="s">
+      <c r="G353" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="H331" s="178" t="s">
+      <c r="H353" s="178" t="s">
         <v>59</v>
       </c>
-      <c r="I331" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J331" s="173" t="s">
+      <c r="I353" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J353" s="173" t="s">
         <v>321</v>
       </c>
-      <c r="K331" s="173" t="s">
+      <c r="K353" s="173" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="332" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A332" s="172" t="str">
-        <f t="shared" si="7"/>
+    <row r="354" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A354" s="172" t="str">
+        <f t="shared" si="9"/>
         <v>302_90002_13</v>
       </c>
-      <c r="B332" s="173">
+      <c r="B354" s="173">
         <v>302</v>
       </c>
-      <c r="C332" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D332" s="172">
+      <c r="C354" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D354" s="172">
         <v>13</v>
       </c>
-      <c r="E332" s="174" t="s">
+      <c r="E354" s="174" t="s">
         <v>344</v>
       </c>
-      <c r="F332" s="178">
+      <c r="F354" s="178">
         <v>12</v>
       </c>
-      <c r="G332" s="178" t="s">
+      <c r="G354" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="H332" s="178" t="s">
+      <c r="H354" s="178" t="s">
         <v>60</v>
       </c>
-      <c r="I332" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J332" s="173" t="s">
+      <c r="I354" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J354" s="173" t="s">
         <v>321</v>
       </c>
-      <c r="K332" s="173" t="s">
+      <c r="K354" s="173" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="333" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A333" s="172" t="str">
-        <f t="shared" si="7"/>
+    <row r="355" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A355" s="172" t="str">
+        <f t="shared" si="9"/>
         <v>303_90002_13</v>
       </c>
-      <c r="B333" s="173">
+      <c r="B355" s="173">
         <v>303</v>
       </c>
-      <c r="C333" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D333" s="172">
+      <c r="C355" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D355" s="172">
         <v>13</v>
       </c>
-      <c r="E333" s="174" t="s">
+      <c r="E355" s="174" t="s">
         <v>345</v>
       </c>
-      <c r="F333" s="178">
+      <c r="F355" s="178">
         <v>25</v>
       </c>
-      <c r="G333" s="178" t="s">
+      <c r="G355" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="H333" s="178" t="s">
+      <c r="H355" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="I333" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J333" s="173" t="s">
+      <c r="I355" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J355" s="173" t="s">
         <v>321</v>
       </c>
-      <c r="K333" s="173" t="s">
+      <c r="K355" s="173" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="334" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A334" s="179" t="str">
-        <f t="shared" si="7"/>
+    <row r="356" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A356" s="179" t="str">
+        <f t="shared" si="9"/>
         <v>101_90002_14</v>
       </c>
-      <c r="B334" s="180">
+      <c r="B356" s="180">
         <v>101</v>
       </c>
-      <c r="C334" s="179">
-        <v>90002</v>
-      </c>
-      <c r="D334" s="179">
+      <c r="C356" s="179">
+        <v>90002</v>
+      </c>
+      <c r="D356" s="179">
         <v>14</v>
       </c>
-      <c r="E334" s="181" t="s">
+      <c r="E356" s="181" t="s">
         <v>348</v>
       </c>
-      <c r="F334" s="182">
+      <c r="F356" s="182">
         <v>6</v>
       </c>
-      <c r="G334" s="183" t="s">
+      <c r="G356" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="H334" s="184" t="s">
+      <c r="H356" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="I334" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="J334" s="180" t="s">
+      <c r="I356" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="J356" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="K334" s="180" t="s">
+      <c r="K356" s="180" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="335" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A335" s="179" t="str">
-        <f t="shared" si="7"/>
+    <row r="357" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A357" s="179" t="str">
+        <f t="shared" si="9"/>
         <v>102_90002_14</v>
       </c>
-      <c r="B335" s="180">
+      <c r="B357" s="180">
         <v>102</v>
       </c>
-      <c r="C335" s="179">
-        <v>90002</v>
-      </c>
-      <c r="D335" s="179">
+      <c r="C357" s="179">
+        <v>90002</v>
+      </c>
+      <c r="D357" s="179">
         <v>14</v>
       </c>
-      <c r="E335" s="181" t="s">
+      <c r="E357" s="181" t="s">
         <v>349</v>
       </c>
-      <c r="F335" s="182">
+      <c r="F357" s="182">
         <v>30</v>
       </c>
-      <c r="G335" s="183" t="s">
+      <c r="G357" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="H335" s="184" t="s">
+      <c r="H357" s="184" t="s">
         <v>52</v>
       </c>
-      <c r="I335" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="J335" s="180" t="s">
+      <c r="I357" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="J357" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="K335" s="180" t="s">
+      <c r="K357" s="180" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="336" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A336" s="179" t="str">
-        <f t="shared" si="7"/>
+    <row r="358" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A358" s="179" t="str">
+        <f t="shared" si="9"/>
         <v>103_90002_14</v>
       </c>
-      <c r="B336" s="180">
-        <v>103</v>
-      </c>
-      <c r="C336" s="179">
-        <v>90002</v>
-      </c>
-      <c r="D336" s="179">
+      <c r="B358" s="180">
+        <v>103</v>
+      </c>
+      <c r="C358" s="179">
+        <v>90002</v>
+      </c>
+      <c r="D358" s="179">
         <v>14</v>
       </c>
-      <c r="E336" s="181" t="s">
+      <c r="E358" s="181" t="s">
         <v>350</v>
       </c>
-      <c r="F336" s="182">
-        <v>98</v>
-      </c>
-      <c r="G336" s="183" t="s">
+      <c r="F358" s="182">
+        <v>98</v>
+      </c>
+      <c r="G358" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="H336" s="184" t="s">
+      <c r="H358" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="I336" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="J336" s="180" t="s">
+      <c r="I358" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="J358" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="K336" s="180" t="s">
+      <c r="K358" s="180" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="337" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A337" s="179" t="str">
-        <f t="shared" si="7"/>
+    <row r="359" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A359" s="179" t="str">
+        <f t="shared" si="9"/>
         <v>104_90002_14</v>
       </c>
-      <c r="B337" s="180">
+      <c r="B359" s="180">
         <v>104</v>
       </c>
-      <c r="C337" s="179">
-        <v>90002</v>
-      </c>
-      <c r="D337" s="179">
+      <c r="C359" s="179">
+        <v>90002</v>
+      </c>
+      <c r="D359" s="179">
         <v>14</v>
       </c>
-      <c r="E337" s="181" t="s">
+      <c r="E359" s="181" t="s">
         <v>351</v>
       </c>
-      <c r="F337" s="182">
+      <c r="F359" s="182">
         <v>168</v>
       </c>
-      <c r="G337" s="183" t="s">
+      <c r="G359" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="H337" s="184" t="s">
+      <c r="H359" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="I337" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="J337" s="180" t="s">
+      <c r="I359" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="J359" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="K337" s="180" t="s">
+      <c r="K359" s="180" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="338" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A338" s="179" t="str">
-        <f t="shared" si="7"/>
+    <row r="360" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A360" s="179" t="str">
+        <f t="shared" si="9"/>
         <v>105_90002_14</v>
       </c>
-      <c r="B338" s="180">
+      <c r="B360" s="180">
         <v>105</v>
       </c>
-      <c r="C338" s="179">
-        <v>90002</v>
-      </c>
-      <c r="D338" s="179">
+      <c r="C360" s="179">
+        <v>90002</v>
+      </c>
+      <c r="D360" s="179">
         <v>14</v>
       </c>
-      <c r="E338" s="181" t="s">
+      <c r="E360" s="181" t="s">
         <v>352</v>
       </c>
-      <c r="F338" s="182">
+      <c r="F360" s="182">
         <v>238</v>
       </c>
-      <c r="G338" s="183" t="s">
+      <c r="G360" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="H338" s="184" t="s">
+      <c r="H360" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="I338" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="J338" s="180" t="s">
+      <c r="I360" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="J360" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="K338" s="180" t="s">
+      <c r="K360" s="180" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="339" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A339" s="179" t="str">
-        <f t="shared" si="7"/>
+    <row r="361" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A361" s="179" t="str">
+        <f t="shared" si="9"/>
         <v>106_90002_14</v>
       </c>
-      <c r="B339" s="180">
+      <c r="B361" s="180">
         <v>106</v>
       </c>
-      <c r="C339" s="179">
-        <v>90002</v>
-      </c>
-      <c r="D339" s="179">
+      <c r="C361" s="179">
+        <v>90002</v>
+      </c>
+      <c r="D361" s="179">
         <v>14</v>
       </c>
-      <c r="E339" s="181" t="s">
+      <c r="E361" s="181" t="s">
         <v>353</v>
       </c>
-      <c r="F339" s="182">
+      <c r="F361" s="182">
         <v>328</v>
       </c>
-      <c r="G339" s="183" t="s">
+      <c r="G361" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="H339" s="184" t="s">
+      <c r="H361" s="184" t="s">
         <v>56</v>
       </c>
-      <c r="I339" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="J339" s="180" t="s">
+      <c r="I361" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="J361" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="K339" s="180" t="s">
+      <c r="K361" s="180" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="340" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A340" s="179" t="str">
-        <f t="shared" si="7"/>
+    <row r="362" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A362" s="179" t="str">
+        <f t="shared" si="9"/>
         <v>107_90002_14</v>
       </c>
-      <c r="B340" s="180">
+      <c r="B362" s="180">
         <v>107</v>
       </c>
-      <c r="C340" s="179">
-        <v>90002</v>
-      </c>
-      <c r="D340" s="179">
+      <c r="C362" s="179">
+        <v>90002</v>
+      </c>
+      <c r="D362" s="179">
         <v>14</v>
       </c>
-      <c r="E340" s="181" t="s">
+      <c r="E362" s="181" t="s">
         <v>354</v>
       </c>
-      <c r="F340" s="182">
+      <c r="F362" s="182">
         <v>648</v>
       </c>
-      <c r="G340" s="183" t="s">
+      <c r="G362" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="H340" s="184" t="s">
+      <c r="H362" s="184" t="s">
         <v>57</v>
       </c>
-      <c r="I340" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="J340" s="180" t="s">
+      <c r="I362" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="J362" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="K340" s="180" t="s">
+      <c r="K362" s="180" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="341" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A341" s="179" t="str">
-        <f t="shared" si="7"/>
+    <row r="363" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A363" s="179" t="str">
+        <f t="shared" si="9"/>
         <v>201_90002_14</v>
       </c>
-      <c r="B341" s="180">
+      <c r="B363" s="180">
         <v>201</v>
       </c>
-      <c r="C341" s="179">
-        <v>90002</v>
-      </c>
-      <c r="D341" s="179">
+      <c r="C363" s="179">
+        <v>90002</v>
+      </c>
+      <c r="D363" s="179">
         <v>14</v>
       </c>
-      <c r="E341" s="181" t="s">
+      <c r="E363" s="181" t="s">
         <v>355</v>
       </c>
-      <c r="F341" s="185">
+      <c r="F363" s="185">
         <v>88</v>
       </c>
-      <c r="G341" s="185" t="s">
+      <c r="G363" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="H341" s="185" t="s">
+      <c r="H363" s="185" t="s">
         <v>58</v>
       </c>
-      <c r="I341" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="J341" s="180" t="s">
+      <c r="I363" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="J363" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="K341" s="180" t="s">
+      <c r="K363" s="180" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="342" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A342" s="179" t="str">
-        <f t="shared" si="7"/>
+    <row r="364" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A364" s="179" t="str">
+        <f t="shared" si="9"/>
         <v>301_90002_14</v>
       </c>
-      <c r="B342" s="180">
+      <c r="B364" s="180">
         <v>301</v>
       </c>
-      <c r="C342" s="179">
-        <v>90002</v>
-      </c>
-      <c r="D342" s="179">
+      <c r="C364" s="179">
+        <v>90002</v>
+      </c>
+      <c r="D364" s="179">
         <v>14</v>
       </c>
-      <c r="E342" s="181" t="s">
+      <c r="E364" s="181" t="s">
         <v>356</v>
       </c>
-      <c r="F342" s="185">
+      <c r="F364" s="185">
         <v>6</v>
       </c>
-      <c r="G342" s="185" t="s">
+      <c r="G364" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="H342" s="185" t="s">
+      <c r="H364" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="I342" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="J342" s="180" t="s">
+      <c r="I364" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="J364" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="K342" s="180" t="s">
+      <c r="K364" s="180" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="343" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A343" s="179" t="str">
-        <f t="shared" si="7"/>
+    <row r="365" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A365" s="179" t="str">
+        <f t="shared" si="9"/>
         <v>302_90002_14</v>
       </c>
-      <c r="B343" s="180">
+      <c r="B365" s="180">
         <v>302</v>
       </c>
-      <c r="C343" s="179">
-        <v>90002</v>
-      </c>
-      <c r="D343" s="179">
+      <c r="C365" s="179">
+        <v>90002</v>
+      </c>
+      <c r="D365" s="179">
         <v>14</v>
       </c>
-      <c r="E343" s="181" t="s">
+      <c r="E365" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="F343" s="185">
+      <c r="F365" s="185">
         <v>12</v>
       </c>
-      <c r="G343" s="185" t="s">
+      <c r="G365" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="H343" s="185" t="s">
+      <c r="H365" s="185" t="s">
         <v>60</v>
       </c>
-      <c r="I343" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="J343" s="180" t="s">
+      <c r="I365" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="J365" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="K343" s="180" t="s">
+      <c r="K365" s="180" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="344" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A344" s="179" t="str">
-        <f t="shared" si="7"/>
+    <row r="366" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A366" s="179" t="str">
+        <f t="shared" si="9"/>
         <v>303_90002_14</v>
       </c>
-      <c r="B344" s="180">
+      <c r="B366" s="180">
         <v>303</v>
       </c>
-      <c r="C344" s="179">
-        <v>90002</v>
-      </c>
-      <c r="D344" s="179">
+      <c r="C366" s="179">
+        <v>90002</v>
+      </c>
+      <c r="D366" s="179">
         <v>14</v>
       </c>
-      <c r="E344" s="181" t="s">
+      <c r="E366" s="181" t="s">
         <v>358</v>
       </c>
-      <c r="F344" s="185">
+      <c r="F366" s="185">
         <v>25</v>
       </c>
-      <c r="G344" s="185" t="s">
+      <c r="G366" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="H344" s="185" t="s">
+      <c r="H366" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="I344" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="J344" s="180" t="s">
+      <c r="I366" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="J366" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="K344" s="180" t="s">
+      <c r="K366" s="180" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="345" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A345" s="70" t="str">
-        <f t="shared" si="7"/>
+    <row r="367" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A367" s="70" t="str">
+        <f t="shared" si="9"/>
         <v>101_90002_6089</v>
       </c>
-      <c r="B345" s="39">
+      <c r="B367" s="39">
         <v>101</v>
       </c>
-      <c r="C345" s="70">
-        <v>90002</v>
-      </c>
-      <c r="D345" s="70">
+      <c r="C367" s="70">
+        <v>90002</v>
+      </c>
+      <c r="D367" s="70">
         <v>6089</v>
       </c>
-      <c r="E345" s="86" t="s">
+      <c r="E367" s="86" t="s">
         <v>359</v>
       </c>
-      <c r="F345" s="40">
+      <c r="F367" s="40">
         <v>6</v>
       </c>
-      <c r="G345" s="41" t="s">
+      <c r="G367" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H345" s="42" t="s">
+      <c r="H367" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="I345" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="J345" s="39" t="s">
+      <c r="I367" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J367" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="K345" s="39" t="s">
+      <c r="K367" s="39" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="346" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A346" s="70" t="str">
-        <f t="shared" si="7"/>
+    <row r="368" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A368" s="70" t="str">
+        <f t="shared" si="9"/>
         <v>102_90002_6089</v>
       </c>
-      <c r="B346" s="39">
+      <c r="B368" s="39">
         <v>102</v>
       </c>
-      <c r="C346" s="70">
-        <v>90002</v>
-      </c>
-      <c r="D346" s="70">
+      <c r="C368" s="70">
+        <v>90002</v>
+      </c>
+      <c r="D368" s="70">
         <v>6089</v>
       </c>
-      <c r="E346" s="86" t="s">
+      <c r="E368" s="86" t="s">
         <v>360</v>
       </c>
-      <c r="F346" s="40">
+      <c r="F368" s="40">
         <v>30</v>
       </c>
-      <c r="G346" s="41" t="s">
+      <c r="G368" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H346" s="42" t="s">
+      <c r="H368" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="I346" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="J346" s="39" t="s">
+      <c r="I368" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J368" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="K346" s="39" t="s">
+      <c r="K368" s="39" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="347" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A347" s="70" t="str">
-        <f t="shared" si="7"/>
+    <row r="369" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A369" s="70" t="str">
+        <f t="shared" si="9"/>
         <v>103_90002_6089</v>
       </c>
-      <c r="B347" s="39">
-        <v>103</v>
-      </c>
-      <c r="C347" s="70">
-        <v>90002</v>
-      </c>
-      <c r="D347" s="70">
+      <c r="B369" s="39">
+        <v>103</v>
+      </c>
+      <c r="C369" s="70">
+        <v>90002</v>
+      </c>
+      <c r="D369" s="70">
         <v>6089</v>
       </c>
-      <c r="E347" s="86" t="s">
+      <c r="E369" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="F347" s="40">
-        <v>98</v>
-      </c>
-      <c r="G347" s="41" t="s">
+      <c r="F369" s="40">
+        <v>98</v>
+      </c>
+      <c r="G369" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H347" s="42" t="s">
+      <c r="H369" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="I347" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="J347" s="39" t="s">
+      <c r="I369" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J369" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="K347" s="39" t="s">
+      <c r="K369" s="39" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="348" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A348" s="70" t="str">
-        <f t="shared" si="7"/>
+    <row r="370" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A370" s="70" t="str">
+        <f t="shared" si="9"/>
         <v>104_90002_6089</v>
       </c>
-      <c r="B348" s="39">
+      <c r="B370" s="39">
         <v>104</v>
       </c>
-      <c r="C348" s="70">
-        <v>90002</v>
-      </c>
-      <c r="D348" s="70">
+      <c r="C370" s="70">
+        <v>90002</v>
+      </c>
+      <c r="D370" s="70">
         <v>6089</v>
       </c>
-      <c r="E348" s="86" t="s">
+      <c r="E370" s="86" t="s">
         <v>362</v>
       </c>
-      <c r="F348" s="40">
+      <c r="F370" s="40">
         <v>168</v>
       </c>
-      <c r="G348" s="41" t="s">
+      <c r="G370" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="H348" s="42" t="s">
+      <c r="H370" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="I348" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="J348" s="39" t="s">
+      <c r="I370" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J370" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="K348" s="39" t="s">
+      <c r="K370" s="39" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="349" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A349" s="70" t="str">
-        <f t="shared" si="7"/>
+    <row r="371" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A371" s="70" t="str">
+        <f t="shared" si="9"/>
         <v>105_90002_6089</v>
       </c>
-      <c r="B349" s="39">
+      <c r="B371" s="39">
         <v>105</v>
       </c>
-      <c r="C349" s="70">
-        <v>90002</v>
-      </c>
-      <c r="D349" s="70">
+      <c r="C371" s="70">
+        <v>90002</v>
+      </c>
+      <c r="D371" s="70">
         <v>6089</v>
       </c>
-      <c r="E349" s="86" t="s">
+      <c r="E371" s="86" t="s">
         <v>363</v>
       </c>
-      <c r="F349" s="40">
+      <c r="F371" s="40">
         <v>238</v>
       </c>
-      <c r="G349" s="41" t="s">
+      <c r="G371" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H349" s="42" t="s">
+      <c r="H371" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I349" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="J349" s="39" t="s">
+      <c r="I371" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J371" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="K349" s="39" t="s">
+      <c r="K371" s="39" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="350" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A350" s="70" t="str">
-        <f t="shared" si="7"/>
+    <row r="372" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A372" s="70" t="str">
+        <f t="shared" si="9"/>
         <v>106_90002_6089</v>
       </c>
-      <c r="B350" s="39">
+      <c r="B372" s="39">
         <v>106</v>
       </c>
-      <c r="C350" s="70">
-        <v>90002</v>
-      </c>
-      <c r="D350" s="70">
+      <c r="C372" s="70">
+        <v>90002</v>
+      </c>
+      <c r="D372" s="70">
         <v>6089</v>
       </c>
-      <c r="E350" s="86" t="s">
+      <c r="E372" s="86" t="s">
         <v>364</v>
       </c>
-      <c r="F350" s="40">
+      <c r="F372" s="40">
         <v>328</v>
       </c>
-      <c r="G350" s="41" t="s">
+      <c r="G372" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H350" s="42" t="s">
+      <c r="H372" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="I350" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="J350" s="39" t="s">
+      <c r="I372" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J372" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="K350" s="39" t="s">
+      <c r="K372" s="39" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="351" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A351" s="70" t="str">
-        <f t="shared" si="7"/>
+    <row r="373" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A373" s="70" t="str">
+        <f t="shared" si="9"/>
         <v>107_90002_6089</v>
       </c>
-      <c r="B351" s="39">
+      <c r="B373" s="39">
         <v>107</v>
       </c>
-      <c r="C351" s="70">
-        <v>90002</v>
-      </c>
-      <c r="D351" s="70">
+      <c r="C373" s="70">
+        <v>90002</v>
+      </c>
+      <c r="D373" s="70">
         <v>6089</v>
       </c>
-      <c r="E351" s="86" t="s">
+      <c r="E373" s="86" t="s">
         <v>365</v>
       </c>
-      <c r="F351" s="40">
+      <c r="F373" s="40">
         <v>648</v>
       </c>
-      <c r="G351" s="41" t="s">
+      <c r="G373" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H351" s="42" t="s">
+      <c r="H373" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="I351" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="J351" s="39" t="s">
+      <c r="I373" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J373" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="K351" s="39" t="s">
+      <c r="K373" s="39" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="352" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A352" s="70" t="str">
-        <f t="shared" si="7"/>
+    <row r="374" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A374" s="70" t="str">
+        <f t="shared" si="9"/>
         <v>201_90002_6089</v>
       </c>
-      <c r="B352" s="39">
+      <c r="B374" s="39">
         <v>201</v>
       </c>
-      <c r="C352" s="70">
-        <v>90002</v>
-      </c>
-      <c r="D352" s="70">
+      <c r="C374" s="70">
+        <v>90002</v>
+      </c>
+      <c r="D374" s="70">
         <v>6089</v>
       </c>
-      <c r="E352" s="86" t="s">
+      <c r="E374" s="86" t="s">
         <v>366</v>
       </c>
-      <c r="F352" s="43">
+      <c r="F374" s="43">
         <v>88</v>
       </c>
-      <c r="G352" s="43" t="s">
+      <c r="G374" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H352" s="43" t="s">
+      <c r="H374" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="I352" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="J352" s="39" t="s">
+      <c r="I374" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J374" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="K352" s="39" t="s">
+      <c r="K374" s="39" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="353" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A353" s="70" t="str">
-        <f t="shared" si="7"/>
+    <row r="375" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A375" s="70" t="str">
+        <f t="shared" si="9"/>
         <v>301_90002_6089</v>
       </c>
-      <c r="B353" s="39">
+      <c r="B375" s="39">
         <v>301</v>
       </c>
-      <c r="C353" s="70">
-        <v>90002</v>
-      </c>
-      <c r="D353" s="70">
+      <c r="C375" s="70">
+        <v>90002</v>
+      </c>
+      <c r="D375" s="70">
         <v>6089</v>
       </c>
-      <c r="E353" s="86" t="s">
+      <c r="E375" s="86" t="s">
         <v>367</v>
       </c>
-      <c r="F353" s="43">
+      <c r="F375" s="43">
         <v>6</v>
       </c>
-      <c r="G353" s="43" t="s">
+      <c r="G375" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="H353" s="43" t="s">
+      <c r="H375" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="I353" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="J353" s="39" t="s">
+      <c r="I375" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J375" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="K353" s="39" t="s">
+      <c r="K375" s="39" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="354" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A354" s="70" t="str">
-        <f t="shared" si="7"/>
+    <row r="376" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A376" s="70" t="str">
+        <f t="shared" si="9"/>
         <v>302_90002_6089</v>
       </c>
-      <c r="B354" s="39">
+      <c r="B376" s="39">
         <v>302</v>
       </c>
-      <c r="C354" s="70">
-        <v>90002</v>
-      </c>
-      <c r="D354" s="70">
+      <c r="C376" s="70">
+        <v>90002</v>
+      </c>
+      <c r="D376" s="70">
         <v>6089</v>
       </c>
-      <c r="E354" s="86" t="s">
+      <c r="E376" s="86" t="s">
         <v>368</v>
       </c>
-      <c r="F354" s="43">
+      <c r="F376" s="43">
         <v>12</v>
       </c>
-      <c r="G354" s="43" t="s">
+      <c r="G376" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="H354" s="43" t="s">
+      <c r="H376" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="I354" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="J354" s="39" t="s">
+      <c r="I376" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J376" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="K354" s="39" t="s">
+      <c r="K376" s="39" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="355" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A355" s="70" t="str">
-        <f t="shared" si="7"/>
+    <row r="377" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A377" s="70" t="str">
+        <f t="shared" si="9"/>
         <v>303_90002_6089</v>
       </c>
-      <c r="B355" s="39">
+      <c r="B377" s="39">
         <v>303</v>
       </c>
-      <c r="C355" s="70">
-        <v>90002</v>
-      </c>
-      <c r="D355" s="70">
+      <c r="C377" s="70">
+        <v>90002</v>
+      </c>
+      <c r="D377" s="70">
         <v>6089</v>
       </c>
-      <c r="E355" s="86" t="s">
+      <c r="E377" s="86" t="s">
         <v>369</v>
       </c>
-      <c r="F355" s="43">
+      <c r="F377" s="43">
         <v>25</v>
       </c>
-      <c r="G355" s="43" t="s">
+      <c r="G377" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="H355" s="43" t="s">
+      <c r="H377" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="I355" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="J355" s="39" t="s">
+      <c r="I377" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J377" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="K355" s="39" t="s">
+      <c r="K377" s="39" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="356" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A356" s="172" t="str">
-        <f t="shared" si="7"/>
+    <row r="378" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A378" s="172" t="str">
+        <f t="shared" si="9"/>
         <v>101_90002_6094</v>
       </c>
-      <c r="B356" s="173">
+      <c r="B378" s="173">
         <v>101</v>
       </c>
-      <c r="C356" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D356" s="172">
+      <c r="C378" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D378" s="172">
         <v>6094</v>
       </c>
-      <c r="E356" s="174" t="s">
+      <c r="E378" s="174" t="s">
         <v>372</v>
       </c>
-      <c r="F356" s="175">
+      <c r="F378" s="175">
         <v>6</v>
       </c>
-      <c r="G356" s="176" t="s">
+      <c r="G378" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="H356" s="177" t="s">
+      <c r="H378" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="I356" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J356" s="173" t="s">
+      <c r="I378" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J378" s="173" t="s">
         <v>371</v>
       </c>
-      <c r="K356" s="186" t="s">
+      <c r="K378" s="186" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="357" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A357" s="172" t="str">
-        <f t="shared" si="7"/>
+    <row r="379" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A379" s="172" t="str">
+        <f t="shared" si="9"/>
         <v>102_90002_6094</v>
       </c>
-      <c r="B357" s="173">
+      <c r="B379" s="173">
         <v>102</v>
       </c>
-      <c r="C357" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D357" s="172">
+      <c r="C379" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D379" s="172">
         <v>6094</v>
       </c>
-      <c r="E357" s="174" t="s">
+      <c r="E379" s="174" t="s">
         <v>373</v>
       </c>
-      <c r="F357" s="175">
+      <c r="F379" s="175">
         <v>30</v>
       </c>
-      <c r="G357" s="176" t="s">
+      <c r="G379" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="H357" s="177" t="s">
+      <c r="H379" s="177" t="s">
         <v>52</v>
       </c>
-      <c r="I357" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J357" s="173" t="s">
+      <c r="I379" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J379" s="173" t="s">
         <v>371</v>
       </c>
-      <c r="K357" s="186" t="s">
+      <c r="K379" s="186" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="358" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A358" s="172" t="str">
-        <f t="shared" si="7"/>
+    <row r="380" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A380" s="172" t="str">
+        <f t="shared" si="9"/>
         <v>103_90002_6094</v>
       </c>
-      <c r="B358" s="173">
-        <v>103</v>
-      </c>
-      <c r="C358" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D358" s="172">
+      <c r="B380" s="173">
+        <v>103</v>
+      </c>
+      <c r="C380" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D380" s="172">
         <v>6094</v>
       </c>
-      <c r="E358" s="174" t="s">
+      <c r="E380" s="174" t="s">
         <v>374</v>
       </c>
-      <c r="F358" s="175">
-        <v>98</v>
-      </c>
-      <c r="G358" s="176" t="s">
+      <c r="F380" s="175">
+        <v>98</v>
+      </c>
+      <c r="G380" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="H358" s="177" t="s">
+      <c r="H380" s="177" t="s">
         <v>53</v>
       </c>
-      <c r="I358" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J358" s="173" t="s">
+      <c r="I380" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J380" s="173" t="s">
         <v>371</v>
       </c>
-      <c r="K358" s="186" t="s">
+      <c r="K380" s="186" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="359" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A359" s="172" t="str">
-        <f t="shared" si="7"/>
+    <row r="381" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A381" s="172" t="str">
+        <f t="shared" si="9"/>
         <v>104_90002_6094</v>
       </c>
-      <c r="B359" s="173">
+      <c r="B381" s="173">
         <v>104</v>
       </c>
-      <c r="C359" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D359" s="172">
+      <c r="C381" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D381" s="172">
         <v>6094</v>
       </c>
-      <c r="E359" s="174" t="s">
+      <c r="E381" s="174" t="s">
         <v>375</v>
       </c>
-      <c r="F359" s="175">
+      <c r="F381" s="175">
         <v>168</v>
       </c>
-      <c r="G359" s="176" t="s">
+      <c r="G381" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="H359" s="177" t="s">
+      <c r="H381" s="177" t="s">
         <v>54</v>
       </c>
-      <c r="I359" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J359" s="173" t="s">
+      <c r="I381" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J381" s="173" t="s">
         <v>371</v>
       </c>
-      <c r="K359" s="186" t="s">
+      <c r="K381" s="186" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="360" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A360" s="172" t="str">
-        <f t="shared" si="7"/>
+    <row r="382" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A382" s="172" t="str">
+        <f t="shared" si="9"/>
         <v>105_90002_6094</v>
       </c>
-      <c r="B360" s="173">
+      <c r="B382" s="173">
         <v>105</v>
       </c>
-      <c r="C360" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D360" s="172">
+      <c r="C382" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D382" s="172">
         <v>6094</v>
       </c>
-      <c r="E360" s="174" t="s">
+      <c r="E382" s="174" t="s">
         <v>376</v>
       </c>
-      <c r="F360" s="175">
+      <c r="F382" s="175">
         <v>238</v>
       </c>
-      <c r="G360" s="176" t="s">
+      <c r="G382" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="H360" s="177" t="s">
+      <c r="H382" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="I360" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J360" s="173" t="s">
+      <c r="I382" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J382" s="173" t="s">
         <v>371</v>
       </c>
-      <c r="K360" s="186" t="s">
+      <c r="K382" s="186" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="361" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A361" s="172" t="str">
-        <f t="shared" si="7"/>
+    <row r="383" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A383" s="172" t="str">
+        <f t="shared" si="9"/>
         <v>106_90002_6094</v>
       </c>
-      <c r="B361" s="173">
+      <c r="B383" s="173">
         <v>106</v>
       </c>
-      <c r="C361" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D361" s="172">
+      <c r="C383" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D383" s="172">
         <v>6094</v>
       </c>
-      <c r="E361" s="174" t="s">
+      <c r="E383" s="174" t="s">
         <v>377</v>
       </c>
-      <c r="F361" s="175">
+      <c r="F383" s="175">
         <v>328</v>
       </c>
-      <c r="G361" s="176" t="s">
+      <c r="G383" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="H361" s="177" t="s">
+      <c r="H383" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="I361" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J361" s="173" t="s">
+      <c r="I383" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J383" s="173" t="s">
         <v>371</v>
       </c>
-      <c r="K361" s="186" t="s">
+      <c r="K383" s="186" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="362" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A362" s="172" t="str">
-        <f t="shared" si="7"/>
+    <row r="384" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A384" s="172" t="str">
+        <f t="shared" si="9"/>
         <v>107_90002_6094</v>
       </c>
-      <c r="B362" s="173">
+      <c r="B384" s="173">
         <v>107</v>
       </c>
-      <c r="C362" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D362" s="172">
+      <c r="C384" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D384" s="172">
         <v>6094</v>
       </c>
-      <c r="E362" s="174" t="s">
+      <c r="E384" s="174" t="s">
         <v>378</v>
       </c>
-      <c r="F362" s="175">
+      <c r="F384" s="175">
         <v>648</v>
       </c>
-      <c r="G362" s="176" t="s">
+      <c r="G384" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="H362" s="177" t="s">
+      <c r="H384" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="I362" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J362" s="173" t="s">
+      <c r="I384" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J384" s="173" t="s">
         <v>371</v>
       </c>
-      <c r="K362" s="186" t="s">
+      <c r="K384" s="186" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="363" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A363" s="172" t="str">
-        <f t="shared" si="7"/>
+    <row r="385" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A385" s="172" t="str">
+        <f t="shared" si="9"/>
         <v>201_90002_6094</v>
       </c>
-      <c r="B363" s="173">
+      <c r="B385" s="173">
         <v>201</v>
       </c>
-      <c r="C363" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D363" s="172">
+      <c r="C385" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D385" s="172">
         <v>6094</v>
       </c>
-      <c r="E363" s="174" t="s">
+      <c r="E385" s="174" t="s">
         <v>379</v>
       </c>
-      <c r="F363" s="178">
+      <c r="F385" s="178">
         <v>88</v>
       </c>
-      <c r="G363" s="178" t="s">
+      <c r="G385" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="H363" s="178" t="s">
+      <c r="H385" s="178" t="s">
         <v>58</v>
       </c>
-      <c r="I363" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J363" s="173" t="s">
+      <c r="I385" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J385" s="173" t="s">
         <v>371</v>
       </c>
-      <c r="K363" s="186" t="s">
+      <c r="K385" s="186" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="364" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A364" s="172" t="str">
-        <f t="shared" si="7"/>
+    <row r="386" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A386" s="172" t="str">
+        <f t="shared" si="9"/>
         <v>301_90002_6094</v>
       </c>
-      <c r="B364" s="173">
+      <c r="B386" s="173">
         <v>301</v>
       </c>
-      <c r="C364" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D364" s="172">
+      <c r="C386" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D386" s="172">
         <v>6094</v>
       </c>
-      <c r="E364" s="174" t="s">
+      <c r="E386" s="174" t="s">
         <v>380</v>
       </c>
-      <c r="F364" s="178">
+      <c r="F386" s="178">
         <v>6</v>
       </c>
-      <c r="G364" s="178" t="s">
+      <c r="G386" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="H364" s="178" t="s">
+      <c r="H386" s="178" t="s">
         <v>59</v>
       </c>
-      <c r="I364" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J364" s="173" t="s">
+      <c r="I386" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J386" s="173" t="s">
         <v>371</v>
       </c>
-      <c r="K364" s="186" t="s">
+      <c r="K386" s="186" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="365" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A365" s="172" t="str">
-        <f t="shared" si="7"/>
+    <row r="387" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A387" s="172" t="str">
+        <f t="shared" si="9"/>
         <v>302_90002_6094</v>
       </c>
-      <c r="B365" s="173">
+      <c r="B387" s="173">
         <v>302</v>
       </c>
-      <c r="C365" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D365" s="172">
+      <c r="C387" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D387" s="172">
         <v>6094</v>
       </c>
-      <c r="E365" s="174" t="s">
+      <c r="E387" s="174" t="s">
         <v>381</v>
       </c>
-      <c r="F365" s="178">
+      <c r="F387" s="178">
         <v>12</v>
       </c>
-      <c r="G365" s="178" t="s">
+      <c r="G387" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="H365" s="178" t="s">
+      <c r="H387" s="178" t="s">
         <v>60</v>
       </c>
-      <c r="I365" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J365" s="173" t="s">
+      <c r="I387" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J387" s="173" t="s">
         <v>371</v>
       </c>
-      <c r="K365" s="186" t="s">
+      <c r="K387" s="186" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="366" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A366" s="172" t="str">
-        <f t="shared" si="7"/>
+    <row r="388" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A388" s="172" t="str">
+        <f t="shared" si="9"/>
         <v>303_90002_6094</v>
       </c>
-      <c r="B366" s="173">
+      <c r="B388" s="173">
         <v>303</v>
       </c>
-      <c r="C366" s="172">
-        <v>90002</v>
-      </c>
-      <c r="D366" s="172">
+      <c r="C388" s="172">
+        <v>90002</v>
+      </c>
+      <c r="D388" s="172">
         <v>6094</v>
       </c>
-      <c r="E366" s="174" t="s">
+      <c r="E388" s="174" t="s">
         <v>382</v>
       </c>
-      <c r="F366" s="178">
+      <c r="F388" s="178">
         <v>25</v>
       </c>
-      <c r="G366" s="178" t="s">
+      <c r="G388" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="H366" s="178" t="s">
+      <c r="H388" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="I366" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="J366" s="173" t="s">
+      <c r="I388" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="J388" s="173" t="s">
         <v>371</v>
       </c>
-      <c r="K366" s="186" t="s">
+      <c r="K388" s="186" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="367" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A367" s="187" t="str">
-        <f t="shared" si="7"/>
-        <v>101_90002_15</v>
-      </c>
-      <c r="B367" s="188">
+    <row r="389" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A389" s="187" t="str">
+        <f t="shared" si="9"/>
+        <v>101_90002_6095</v>
+      </c>
+      <c r="B389" s="188">
         <v>101</v>
       </c>
-      <c r="C367" s="187">
-        <v>90002</v>
-      </c>
-      <c r="D367" s="187">
-        <v>15</v>
-      </c>
-      <c r="E367" s="189" t="s">
+      <c r="C389" s="187">
+        <v>90002</v>
+      </c>
+      <c r="D389" s="187" t="s">
+        <v>518</v>
+      </c>
+      <c r="E389" s="189" t="s">
         <v>384</v>
       </c>
-      <c r="F367" s="190">
+      <c r="F389" s="190">
         <v>6</v>
       </c>
-      <c r="G367" s="191" t="s">
+      <c r="G389" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="H367" s="192" t="s">
+      <c r="H389" s="192" t="s">
         <v>51</v>
       </c>
-      <c r="I367" s="187" t="s">
-        <v>98</v>
-      </c>
-      <c r="J367" s="188" t="s">
+      <c r="I389" s="187" t="s">
+        <v>98</v>
+      </c>
+      <c r="J389" s="188" t="s">
         <v>371</v>
       </c>
-      <c r="K367" s="188" t="s">
+      <c r="K389" s="188" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="368" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A368" s="187" t="str">
-        <f t="shared" si="7"/>
-        <v>102_90002_15</v>
-      </c>
-      <c r="B368" s="188">
+    <row r="390" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A390" s="187" t="str">
+        <f t="shared" si="9"/>
+        <v>102_90002_6095</v>
+      </c>
+      <c r="B390" s="188">
         <v>102</v>
       </c>
-      <c r="C368" s="187">
-        <v>90002</v>
-      </c>
-      <c r="D368" s="187">
-        <v>15</v>
-      </c>
-      <c r="E368" s="189" t="s">
+      <c r="C390" s="187">
+        <v>90002</v>
+      </c>
+      <c r="D390" s="187" t="s">
+        <v>518</v>
+      </c>
+      <c r="E390" s="189" t="s">
         <v>385</v>
       </c>
-      <c r="F368" s="190">
+      <c r="F390" s="190">
         <v>30</v>
       </c>
-      <c r="G368" s="191" t="s">
+      <c r="G390" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="H368" s="192" t="s">
+      <c r="H390" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="I368" s="187" t="s">
-        <v>98</v>
-      </c>
-      <c r="J368" s="188" t="s">
+      <c r="I390" s="187" t="s">
+        <v>98</v>
+      </c>
+      <c r="J390" s="188" t="s">
         <v>371</v>
       </c>
-      <c r="K368" s="188" t="s">
+      <c r="K390" s="188" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="369" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A369" s="187" t="str">
-        <f t="shared" si="7"/>
-        <v>103_90002_15</v>
-      </c>
-      <c r="B369" s="188">
-        <v>103</v>
-      </c>
-      <c r="C369" s="187">
-        <v>90002</v>
-      </c>
-      <c r="D369" s="187">
-        <v>15</v>
-      </c>
-      <c r="E369" s="189" t="s">
+    <row r="391" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A391" s="187" t="str">
+        <f t="shared" si="9"/>
+        <v>103_90002_6095</v>
+      </c>
+      <c r="B391" s="188">
+        <v>103</v>
+      </c>
+      <c r="C391" s="187">
+        <v>90002</v>
+      </c>
+      <c r="D391" s="187" t="s">
+        <v>517</v>
+      </c>
+      <c r="E391" s="189" t="s">
         <v>386</v>
       </c>
-      <c r="F369" s="190">
-        <v>98</v>
-      </c>
-      <c r="G369" s="191" t="s">
+      <c r="F391" s="190">
+        <v>98</v>
+      </c>
+      <c r="G391" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="H369" s="192" t="s">
+      <c r="H391" s="192" t="s">
         <v>53</v>
       </c>
-      <c r="I369" s="187" t="s">
-        <v>98</v>
-      </c>
-      <c r="J369" s="188" t="s">
+      <c r="I391" s="187" t="s">
+        <v>98</v>
+      </c>
+      <c r="J391" s="188" t="s">
         <v>371</v>
       </c>
-      <c r="K369" s="188" t="s">
+      <c r="K391" s="188" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="370" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A370" s="187" t="str">
-        <f t="shared" si="7"/>
-        <v>104_90002_15</v>
-      </c>
-      <c r="B370" s="188">
+    <row r="392" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A392" s="187" t="str">
+        <f t="shared" si="9"/>
+        <v>104_90002_6095</v>
+      </c>
+      <c r="B392" s="188">
         <v>104</v>
       </c>
-      <c r="C370" s="187">
-        <v>90002</v>
-      </c>
-      <c r="D370" s="187">
-        <v>15</v>
-      </c>
-      <c r="E370" s="189" t="s">
+      <c r="C392" s="187">
+        <v>90002</v>
+      </c>
+      <c r="D392" s="187" t="s">
+        <v>517</v>
+      </c>
+      <c r="E392" s="189" t="s">
         <v>387</v>
       </c>
-      <c r="F370" s="190">
+      <c r="F392" s="190">
         <v>168</v>
       </c>
-      <c r="G370" s="191" t="s">
+      <c r="G392" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="H370" s="192" t="s">
+      <c r="H392" s="192" t="s">
         <v>54</v>
       </c>
-      <c r="I370" s="187" t="s">
-        <v>98</v>
-      </c>
-      <c r="J370" s="188" t="s">
+      <c r="I392" s="187" t="s">
+        <v>98</v>
+      </c>
+      <c r="J392" s="188" t="s">
         <v>371</v>
       </c>
-      <c r="K370" s="188" t="s">
+      <c r="K392" s="188" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="371" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A371" s="187" t="str">
-        <f t="shared" si="7"/>
-        <v>105_90002_15</v>
-      </c>
-      <c r="B371" s="188">
+    <row r="393" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A393" s="187" t="str">
+        <f t="shared" si="9"/>
+        <v>105_90002_6095</v>
+      </c>
+      <c r="B393" s="188">
         <v>105</v>
       </c>
-      <c r="C371" s="187">
-        <v>90002</v>
-      </c>
-      <c r="D371" s="187">
-        <v>15</v>
-      </c>
-      <c r="E371" s="189" t="s">
+      <c r="C393" s="187">
+        <v>90002</v>
+      </c>
+      <c r="D393" s="187" t="s">
+        <v>517</v>
+      </c>
+      <c r="E393" s="189" t="s">
         <v>388</v>
       </c>
-      <c r="F371" s="190">
+      <c r="F393" s="190">
         <v>238</v>
       </c>
-      <c r="G371" s="191" t="s">
+      <c r="G393" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="H371" s="192" t="s">
+      <c r="H393" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="I371" s="187" t="s">
-        <v>98</v>
-      </c>
-      <c r="J371" s="188" t="s">
+      <c r="I393" s="187" t="s">
+        <v>98</v>
+      </c>
+      <c r="J393" s="188" t="s">
         <v>371</v>
       </c>
-      <c r="K371" s="188" t="s">
+      <c r="K393" s="188" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="372" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A372" s="187" t="str">
-        <f t="shared" si="7"/>
-        <v>106_90002_15</v>
-      </c>
-      <c r="B372" s="188">
+    <row r="394" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A394" s="187" t="str">
+        <f t="shared" si="9"/>
+        <v>106_90002_6095</v>
+      </c>
+      <c r="B394" s="188">
         <v>106</v>
       </c>
-      <c r="C372" s="187">
-        <v>90002</v>
-      </c>
-      <c r="D372" s="187">
-        <v>15</v>
-      </c>
-      <c r="E372" s="189" t="s">
+      <c r="C394" s="187">
+        <v>90002</v>
+      </c>
+      <c r="D394" s="187" t="s">
+        <v>517</v>
+      </c>
+      <c r="E394" s="189" t="s">
         <v>389</v>
       </c>
-      <c r="F372" s="190">
+      <c r="F394" s="190">
         <v>328</v>
       </c>
-      <c r="G372" s="191" t="s">
+      <c r="G394" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="H372" s="192" t="s">
+      <c r="H394" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="I372" s="187" t="s">
-        <v>98</v>
-      </c>
-      <c r="J372" s="188" t="s">
+      <c r="I394" s="187" t="s">
+        <v>98</v>
+      </c>
+      <c r="J394" s="188" t="s">
         <v>371</v>
       </c>
-      <c r="K372" s="188" t="s">
+      <c r="K394" s="188" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="373" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A373" s="187" t="str">
-        <f t="shared" si="7"/>
-        <v>107_90002_15</v>
-      </c>
-      <c r="B373" s="188">
+    <row r="395" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A395" s="187" t="str">
+        <f t="shared" si="9"/>
+        <v>107_90002_6095</v>
+      </c>
+      <c r="B395" s="188">
         <v>107</v>
       </c>
-      <c r="C373" s="187">
-        <v>90002</v>
-      </c>
-      <c r="D373" s="187">
-        <v>15</v>
-      </c>
-      <c r="E373" s="189" t="s">
+      <c r="C395" s="187">
+        <v>90002</v>
+      </c>
+      <c r="D395" s="187" t="s">
+        <v>517</v>
+      </c>
+      <c r="E395" s="189" t="s">
         <v>390</v>
       </c>
-      <c r="F373" s="190">
+      <c r="F395" s="190">
         <v>648</v>
       </c>
-      <c r="G373" s="191" t="s">
+      <c r="G395" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="H373" s="192" t="s">
+      <c r="H395" s="192" t="s">
         <v>57</v>
       </c>
-      <c r="I373" s="187" t="s">
-        <v>98</v>
-      </c>
-      <c r="J373" s="188" t="s">
+      <c r="I395" s="187" t="s">
+        <v>98</v>
+      </c>
+      <c r="J395" s="188" t="s">
         <v>371</v>
       </c>
-      <c r="K373" s="188" t="s">
+      <c r="K395" s="188" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="374" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A374" s="187" t="str">
-        <f t="shared" si="7"/>
-        <v>201_90002_15</v>
-      </c>
-      <c r="B374" s="188">
+    <row r="396" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A396" s="187" t="str">
+        <f t="shared" si="9"/>
+        <v>201_90002_6095</v>
+      </c>
+      <c r="B396" s="188">
         <v>201</v>
       </c>
-      <c r="C374" s="187">
-        <v>90002</v>
-      </c>
-      <c r="D374" s="187">
-        <v>15</v>
-      </c>
-      <c r="E374" s="189" t="s">
+      <c r="C396" s="187">
+        <v>90002</v>
+      </c>
+      <c r="D396" s="187" t="s">
+        <v>517</v>
+      </c>
+      <c r="E396" s="189" t="s">
         <v>391</v>
       </c>
-      <c r="F374" s="193">
+      <c r="F396" s="193">
         <v>88</v>
       </c>
-      <c r="G374" s="193" t="s">
+      <c r="G396" s="193" t="s">
         <v>20</v>
       </c>
-      <c r="H374" s="193" t="s">
+      <c r="H396" s="193" t="s">
         <v>58</v>
       </c>
-      <c r="I374" s="187" t="s">
-        <v>98</v>
-      </c>
-      <c r="J374" s="188" t="s">
+      <c r="I396" s="187" t="s">
+        <v>98</v>
+      </c>
+      <c r="J396" s="188" t="s">
         <v>371</v>
       </c>
-      <c r="K374" s="188" t="s">
+      <c r="K396" s="188" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="375" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A375" s="187" t="str">
-        <f t="shared" si="7"/>
-        <v>301_90002_15</v>
-      </c>
-      <c r="B375" s="188">
+    <row r="397" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A397" s="187" t="str">
+        <f t="shared" si="9"/>
+        <v>301_90002_6095</v>
+      </c>
+      <c r="B397" s="188">
         <v>301</v>
       </c>
-      <c r="C375" s="187">
-        <v>90002</v>
-      </c>
-      <c r="D375" s="187">
-        <v>15</v>
-      </c>
-      <c r="E375" s="189" t="s">
+      <c r="C397" s="187">
+        <v>90002</v>
+      </c>
+      <c r="D397" s="187" t="s">
+        <v>517</v>
+      </c>
+      <c r="E397" s="189" t="s">
         <v>392</v>
       </c>
-      <c r="F375" s="193">
+      <c r="F397" s="193">
         <v>6</v>
       </c>
-      <c r="G375" s="193" t="s">
+      <c r="G397" s="193" t="s">
         <v>22</v>
       </c>
-      <c r="H375" s="193" t="s">
+      <c r="H397" s="193" t="s">
         <v>59</v>
       </c>
-      <c r="I375" s="187" t="s">
-        <v>98</v>
-      </c>
-      <c r="J375" s="188" t="s">
+      <c r="I397" s="187" t="s">
+        <v>98</v>
+      </c>
+      <c r="J397" s="188" t="s">
         <v>371</v>
       </c>
-      <c r="K375" s="188" t="s">
+      <c r="K397" s="188" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="376" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A376" s="187" t="str">
-        <f t="shared" si="7"/>
-        <v>302_90002_15</v>
-      </c>
-      <c r="B376" s="188">
+    <row r="398" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A398" s="187" t="str">
+        <f t="shared" si="9"/>
+        <v>302_90002_6095</v>
+      </c>
+      <c r="B398" s="188">
         <v>302</v>
       </c>
-      <c r="C376" s="187">
-        <v>90002</v>
-      </c>
-      <c r="D376" s="187">
-        <v>15</v>
-      </c>
-      <c r="E376" s="189" t="s">
+      <c r="C398" s="187">
+        <v>90002</v>
+      </c>
+      <c r="D398" s="187" t="s">
+        <v>517</v>
+      </c>
+      <c r="E398" s="189" t="s">
         <v>393</v>
       </c>
-      <c r="F376" s="193">
+      <c r="F398" s="193">
         <v>12</v>
       </c>
-      <c r="G376" s="193" t="s">
+      <c r="G398" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="H376" s="193" t="s">
+      <c r="H398" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="I376" s="187" t="s">
-        <v>98</v>
-      </c>
-      <c r="J376" s="188" t="s">
+      <c r="I398" s="187" t="s">
+        <v>98</v>
+      </c>
+      <c r="J398" s="188" t="s">
         <v>371</v>
       </c>
-      <c r="K376" s="188" t="s">
+      <c r="K398" s="188" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="377" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A377" s="187" t="str">
-        <f t="shared" si="7"/>
-        <v>303_90002_15</v>
-      </c>
-      <c r="B377" s="188">
+    <row r="399" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A399" s="187" t="str">
+        <f t="shared" si="9"/>
+        <v>303_90002_6095</v>
+      </c>
+      <c r="B399" s="188">
         <v>303</v>
       </c>
-      <c r="C377" s="187">
-        <v>90002</v>
-      </c>
-      <c r="D377" s="187">
-        <v>15</v>
-      </c>
-      <c r="E377" s="189" t="s">
+      <c r="C399" s="187">
+        <v>90002</v>
+      </c>
+      <c r="D399" s="187" t="s">
+        <v>517</v>
+      </c>
+      <c r="E399" s="189" t="s">
         <v>394</v>
       </c>
-      <c r="F377" s="193">
+      <c r="F399" s="193">
         <v>25</v>
       </c>
-      <c r="G377" s="193" t="s">
+      <c r="G399" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="H377" s="193" t="s">
+      <c r="H399" s="193" t="s">
         <v>61</v>
       </c>
-      <c r="I377" s="187" t="s">
-        <v>98</v>
-      </c>
-      <c r="J377" s="188" t="s">
+      <c r="I399" s="187" t="s">
+        <v>98</v>
+      </c>
+      <c r="J399" s="188" t="s">
         <v>371</v>
       </c>
-      <c r="K377" s="188" t="s">
+      <c r="K399" s="188" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="378" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A378" s="94" t="str">
-        <f t="shared" ref="A378:A388" si="8">B378&amp;"_"&amp;C378&amp;"_"&amp;D378</f>
+    <row r="400" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A400" s="94" t="str">
+        <f t="shared" ref="A400:A410" si="10">B400&amp;"_"&amp;C400&amp;"_"&amp;D400</f>
         <v>101_90002_2018000008</v>
       </c>
-      <c r="B378" s="95">
+      <c r="B400" s="95">
         <v>101</v>
       </c>
-      <c r="C378" s="94">
-        <v>90002</v>
-      </c>
-      <c r="D378" s="94" t="s">
+      <c r="C400" s="94">
+        <v>90002</v>
+      </c>
+      <c r="D400" s="94" t="s">
         <v>466</v>
       </c>
-      <c r="E378" s="203" t="s">
+      <c r="E400" s="203" t="s">
         <v>467</v>
       </c>
-      <c r="F378" s="97">
+      <c r="F400" s="97">
         <v>6</v>
       </c>
-      <c r="G378" s="98" t="s">
+      <c r="G400" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="H378" s="99" t="s">
+      <c r="H400" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="I378" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="J378" s="95" t="s">
+      <c r="I400" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="J400" s="95" t="s">
         <v>478</v>
       </c>
-      <c r="K378" s="95" t="s">
+      <c r="K400" s="95" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="379" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A379" s="94" t="str">
-        <f t="shared" si="8"/>
+    <row r="401" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A401" s="94" t="str">
+        <f t="shared" si="10"/>
         <v>102_90002_2018000008</v>
       </c>
-      <c r="B379" s="95">
+      <c r="B401" s="95">
         <v>102</v>
       </c>
-      <c r="C379" s="94">
-        <v>90002</v>
-      </c>
-      <c r="D379" s="94" t="s">
+      <c r="C401" s="94">
+        <v>90002</v>
+      </c>
+      <c r="D401" s="94" t="s">
         <v>466</v>
       </c>
-      <c r="E379" s="203" t="s">
+      <c r="E401" s="203" t="s">
         <v>468</v>
       </c>
-      <c r="F379" s="97">
+      <c r="F401" s="97">
         <v>30</v>
       </c>
-      <c r="G379" s="98" t="s">
+      <c r="G401" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="H379" s="99" t="s">
+      <c r="H401" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="I379" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="J379" s="95" t="s">
+      <c r="I401" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="J401" s="95" t="s">
         <v>478</v>
       </c>
-      <c r="K379" s="95" t="s">
+      <c r="K401" s="95" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="380" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A380" s="94" t="str">
-        <f t="shared" si="8"/>
+    <row r="402" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A402" s="94" t="str">
+        <f t="shared" si="10"/>
         <v>103_90002_2018000008</v>
       </c>
-      <c r="B380" s="95">
-        <v>103</v>
-      </c>
-      <c r="C380" s="94">
-        <v>90002</v>
-      </c>
-      <c r="D380" s="94" t="s">
+      <c r="B402" s="95">
+        <v>103</v>
+      </c>
+      <c r="C402" s="94">
+        <v>90002</v>
+      </c>
+      <c r="D402" s="94" t="s">
         <v>465</v>
       </c>
-      <c r="E380" s="203" t="s">
+      <c r="E402" s="203" t="s">
         <v>469</v>
       </c>
-      <c r="F380" s="97">
-        <v>98</v>
-      </c>
-      <c r="G380" s="98" t="s">
+      <c r="F402" s="97">
+        <v>98</v>
+      </c>
+      <c r="G402" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H380" s="99" t="s">
+      <c r="H402" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="I380" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="J380" s="95" t="s">
+      <c r="I402" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="J402" s="95" t="s">
         <v>478</v>
       </c>
-      <c r="K380" s="95" t="s">
+      <c r="K402" s="95" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="381" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A381" s="94" t="str">
-        <f t="shared" si="8"/>
+    <row r="403" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A403" s="94" t="str">
+        <f t="shared" si="10"/>
         <v>104_90002_2018000008</v>
       </c>
-      <c r="B381" s="95">
+      <c r="B403" s="95">
         <v>104</v>
       </c>
-      <c r="C381" s="94">
-        <v>90002</v>
-      </c>
-      <c r="D381" s="94" t="s">
+      <c r="C403" s="94">
+        <v>90002</v>
+      </c>
+      <c r="D403" s="94" t="s">
         <v>465</v>
       </c>
-      <c r="E381" s="203" t="s">
+      <c r="E403" s="203" t="s">
         <v>470</v>
       </c>
-      <c r="F381" s="97">
+      <c r="F403" s="97">
         <v>168</v>
       </c>
-      <c r="G381" s="98" t="s">
+      <c r="G403" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="H381" s="99" t="s">
+      <c r="H403" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="I381" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="J381" s="95" t="s">
+      <c r="I403" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="J403" s="95" t="s">
         <v>478</v>
       </c>
-      <c r="K381" s="95" t="s">
+      <c r="K403" s="95" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="382" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A382" s="94" t="str">
-        <f t="shared" si="8"/>
+    <row r="404" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A404" s="94" t="str">
+        <f t="shared" si="10"/>
         <v>105_90002_2018000008</v>
       </c>
-      <c r="B382" s="95">
+      <c r="B404" s="95">
         <v>105</v>
       </c>
-      <c r="C382" s="94">
-        <v>90002</v>
-      </c>
-      <c r="D382" s="94" t="s">
+      <c r="C404" s="94">
+        <v>90002</v>
+      </c>
+      <c r="D404" s="94" t="s">
         <v>465</v>
       </c>
-      <c r="E382" s="203" t="s">
+      <c r="E404" s="203" t="s">
         <v>471</v>
       </c>
-      <c r="F382" s="97">
+      <c r="F404" s="97">
         <v>238</v>
       </c>
-      <c r="G382" s="98" t="s">
+      <c r="G404" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="H382" s="99" t="s">
+      <c r="H404" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="I382" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="J382" s="95" t="s">
+      <c r="I404" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="J404" s="95" t="s">
         <v>478</v>
       </c>
-      <c r="K382" s="95" t="s">
+      <c r="K404" s="95" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="383" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A383" s="94" t="str">
-        <f t="shared" si="8"/>
+    <row r="405" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A405" s="94" t="str">
+        <f t="shared" si="10"/>
         <v>106_90002_2018000008</v>
       </c>
-      <c r="B383" s="95">
+      <c r="B405" s="95">
         <v>106</v>
       </c>
-      <c r="C383" s="94">
-        <v>90002</v>
-      </c>
-      <c r="D383" s="94" t="s">
+      <c r="C405" s="94">
+        <v>90002</v>
+      </c>
+      <c r="D405" s="94" t="s">
         <v>465</v>
       </c>
-      <c r="E383" s="203" t="s">
+      <c r="E405" s="203" t="s">
         <v>472</v>
       </c>
-      <c r="F383" s="97">
+      <c r="F405" s="97">
         <v>328</v>
       </c>
-      <c r="G383" s="98" t="s">
+      <c r="G405" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="H383" s="99" t="s">
+      <c r="H405" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="I383" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="J383" s="95" t="s">
+      <c r="I405" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="J405" s="95" t="s">
         <v>478</v>
       </c>
-      <c r="K383" s="95" t="s">
+      <c r="K405" s="95" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="384" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A384" s="94" t="str">
-        <f t="shared" si="8"/>
+    <row r="406" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A406" s="94" t="str">
+        <f t="shared" si="10"/>
         <v>107_90002_2018000008</v>
       </c>
-      <c r="B384" s="95">
+      <c r="B406" s="95">
         <v>107</v>
       </c>
-      <c r="C384" s="94">
-        <v>90002</v>
-      </c>
-      <c r="D384" s="94" t="s">
+      <c r="C406" s="94">
+        <v>90002</v>
+      </c>
+      <c r="D406" s="94" t="s">
         <v>465</v>
       </c>
-      <c r="E384" s="203" t="s">
+      <c r="E406" s="203" t="s">
         <v>477</v>
       </c>
-      <c r="F384" s="97">
+      <c r="F406" s="97">
         <v>648</v>
       </c>
-      <c r="G384" s="98" t="s">
+      <c r="G406" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="H384" s="99" t="s">
+      <c r="H406" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="I384" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="J384" s="95" t="s">
+      <c r="I406" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="J406" s="95" t="s">
         <v>478</v>
       </c>
-      <c r="K384" s="95" t="s">
+      <c r="K406" s="95" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="385" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A385" s="94" t="str">
-        <f t="shared" si="8"/>
+    <row r="407" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="94" t="str">
+        <f t="shared" si="10"/>
         <v>201_90002_2018000008</v>
       </c>
-      <c r="B385" s="95">
+      <c r="B407" s="95">
         <v>201</v>
       </c>
-      <c r="C385" s="94">
-        <v>90002</v>
-      </c>
-      <c r="D385" s="94" t="s">
+      <c r="C407" s="94">
+        <v>90002</v>
+      </c>
+      <c r="D407" s="94" t="s">
         <v>465</v>
       </c>
-      <c r="E385" s="203" t="s">
+      <c r="E407" s="203" t="s">
         <v>473</v>
       </c>
-      <c r="F385" s="100">
+      <c r="F407" s="100">
         <v>88</v>
       </c>
-      <c r="G385" s="100" t="s">
+      <c r="G407" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="H385" s="100" t="s">
+      <c r="H407" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="I385" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="J385" s="95" t="s">
+      <c r="I407" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="J407" s="95" t="s">
         <v>478</v>
       </c>
-      <c r="K385" s="95" t="s">
+      <c r="K407" s="95" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="386" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A386" s="94" t="str">
-        <f t="shared" si="8"/>
+    <row r="408" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A408" s="94" t="str">
+        <f t="shared" si="10"/>
         <v>301_90002_2018000008</v>
       </c>
-      <c r="B386" s="95">
+      <c r="B408" s="95">
         <v>301</v>
       </c>
-      <c r="C386" s="94">
-        <v>90002</v>
-      </c>
-      <c r="D386" s="94" t="s">
+      <c r="C408" s="94">
+        <v>90002</v>
+      </c>
+      <c r="D408" s="94" t="s">
         <v>465</v>
       </c>
-      <c r="E386" s="203" t="s">
+      <c r="E408" s="203" t="s">
         <v>474</v>
       </c>
-      <c r="F386" s="100">
+      <c r="F408" s="100">
         <v>6</v>
       </c>
-      <c r="G386" s="100" t="s">
+      <c r="G408" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="H386" s="100" t="s">
+      <c r="H408" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="I386" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="J386" s="95" t="s">
+      <c r="I408" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="J408" s="95" t="s">
         <v>478</v>
       </c>
-      <c r="K386" s="95" t="s">
+      <c r="K408" s="95" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="387" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A387" s="94" t="str">
-        <f t="shared" si="8"/>
+    <row r="409" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A409" s="94" t="str">
+        <f t="shared" si="10"/>
         <v>302_90002_2018000008</v>
       </c>
-      <c r="B387" s="95">
+      <c r="B409" s="95">
         <v>302</v>
       </c>
-      <c r="C387" s="94">
-        <v>90002</v>
-      </c>
-      <c r="D387" s="94" t="s">
+      <c r="C409" s="94">
+        <v>90002</v>
+      </c>
+      <c r="D409" s="94" t="s">
         <v>465</v>
       </c>
-      <c r="E387" s="203" t="s">
+      <c r="E409" s="203" t="s">
         <v>475</v>
       </c>
-      <c r="F387" s="100">
+      <c r="F409" s="100">
         <v>12</v>
       </c>
-      <c r="G387" s="100" t="s">
+      <c r="G409" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="H387" s="100" t="s">
+      <c r="H409" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="I387" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="J387" s="95" t="s">
+      <c r="I409" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="J409" s="95" t="s">
         <v>478</v>
       </c>
-      <c r="K387" s="95" t="s">
+      <c r="K409" s="95" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="388" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A388" s="94" t="str">
-        <f t="shared" si="8"/>
+    <row r="410" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A410" s="94" t="str">
+        <f t="shared" si="10"/>
         <v>303_90002_2018000008</v>
       </c>
-      <c r="B388" s="95">
+      <c r="B410" s="95">
         <v>303</v>
       </c>
-      <c r="C388" s="94">
-        <v>90002</v>
-      </c>
-      <c r="D388" s="94" t="s">
+      <c r="C410" s="94">
+        <v>90002</v>
+      </c>
+      <c r="D410" s="94" t="s">
         <v>465</v>
       </c>
-      <c r="E388" s="203" t="s">
+      <c r="E410" s="203" t="s">
         <v>476</v>
       </c>
-      <c r="F388" s="100">
+      <c r="F410" s="100">
         <v>25</v>
       </c>
-      <c r="G388" s="100" t="s">
+      <c r="G410" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="H388" s="100" t="s">
+      <c r="H410" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="I388" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="J388" s="95" t="s">
+      <c r="I410" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="J410" s="95" t="s">
         <v>478</v>
       </c>
-      <c r="K388" s="95" t="s">
+      <c r="K410" s="95" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="389" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A389" s="195" t="str">
-        <f t="shared" ref="A389:A399" si="9">B389&amp;"_"&amp;C389&amp;"_"&amp;D389</f>
+    <row r="411" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A411" s="195" t="str">
+        <f t="shared" ref="A411:A421" si="11">B411&amp;"_"&amp;C411&amp;"_"&amp;D411</f>
         <v>101_90002_2018000009</v>
       </c>
-      <c r="B389" s="196">
+      <c r="B411" s="196">
         <v>101</v>
       </c>
-      <c r="C389" s="195">
-        <v>90002</v>
-      </c>
-      <c r="D389" s="195" t="s">
+      <c r="C411" s="195">
+        <v>90002</v>
+      </c>
+      <c r="D411" s="195" t="s">
         <v>491</v>
       </c>
-      <c r="E389" s="197" t="s">
+      <c r="E411" s="197" t="s">
         <v>505</v>
       </c>
-      <c r="F389" s="198">
+      <c r="F411" s="198">
         <v>6</v>
       </c>
-      <c r="G389" s="199" t="s">
+      <c r="G411" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="H389" s="200" t="s">
+      <c r="H411" s="200" t="s">
         <v>51</v>
       </c>
-      <c r="I389" s="195" t="s">
-        <v>98</v>
-      </c>
-      <c r="J389" s="196" t="s">
+      <c r="I411" s="195" t="s">
+        <v>98</v>
+      </c>
+      <c r="J411" s="196" t="s">
         <v>478</v>
       </c>
-      <c r="K389" s="196" t="s">
+      <c r="K411" s="196" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="390" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A390" s="195" t="str">
-        <f t="shared" si="9"/>
+    <row r="412" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A412" s="195" t="str">
+        <f t="shared" si="11"/>
         <v>102_90002_2018000009</v>
       </c>
-      <c r="B390" s="196">
+      <c r="B412" s="196">
         <v>102</v>
       </c>
-      <c r="C390" s="195">
-        <v>90002</v>
-      </c>
-      <c r="D390" s="195" t="s">
+      <c r="C412" s="195">
+        <v>90002</v>
+      </c>
+      <c r="D412" s="195" t="s">
         <v>490</v>
       </c>
-      <c r="E390" s="197" t="s">
+      <c r="E412" s="197" t="s">
         <v>480</v>
       </c>
-      <c r="F390" s="198">
+      <c r="F412" s="198">
         <v>30</v>
       </c>
-      <c r="G390" s="199" t="s">
+      <c r="G412" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="H390" s="200" t="s">
+      <c r="H412" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="I390" s="195" t="s">
-        <v>98</v>
-      </c>
-      <c r="J390" s="196" t="s">
+      <c r="I412" s="195" t="s">
+        <v>98</v>
+      </c>
+      <c r="J412" s="196" t="s">
         <v>478</v>
       </c>
-      <c r="K390" s="196" t="s">
+      <c r="K412" s="196" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="391" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A391" s="195" t="str">
-        <f t="shared" si="9"/>
+    <row r="413" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A413" s="195" t="str">
+        <f t="shared" si="11"/>
         <v>103_90002_2018000009</v>
       </c>
-      <c r="B391" s="196">
-        <v>103</v>
-      </c>
-      <c r="C391" s="195">
-        <v>90002</v>
-      </c>
-      <c r="D391" s="195" t="s">
+      <c r="B413" s="196">
+        <v>103</v>
+      </c>
+      <c r="C413" s="195">
+        <v>90002</v>
+      </c>
+      <c r="D413" s="195" t="s">
         <v>490</v>
       </c>
-      <c r="E391" s="197" t="s">
+      <c r="E413" s="197" t="s">
         <v>481</v>
       </c>
-      <c r="F391" s="198">
-        <v>98</v>
-      </c>
-      <c r="G391" s="199" t="s">
+      <c r="F413" s="198">
+        <v>98</v>
+      </c>
+      <c r="G413" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="H391" s="200" t="s">
+      <c r="H413" s="200" t="s">
         <v>53</v>
       </c>
-      <c r="I391" s="195" t="s">
-        <v>98</v>
-      </c>
-      <c r="J391" s="196" t="s">
+      <c r="I413" s="195" t="s">
+        <v>98</v>
+      </c>
+      <c r="J413" s="196" t="s">
         <v>478</v>
       </c>
-      <c r="K391" s="196" t="s">
+      <c r="K413" s="196" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="392" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A392" s="195" t="str">
-        <f t="shared" si="9"/>
+    <row r="414" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A414" s="195" t="str">
+        <f t="shared" si="11"/>
         <v>104_90002_2018000009</v>
       </c>
-      <c r="B392" s="196">
+      <c r="B414" s="196">
         <v>104</v>
       </c>
-      <c r="C392" s="195">
-        <v>90002</v>
-      </c>
-      <c r="D392" s="195" t="s">
+      <c r="C414" s="195">
+        <v>90002</v>
+      </c>
+      <c r="D414" s="195" t="s">
         <v>490</v>
       </c>
-      <c r="E392" s="197" t="s">
+      <c r="E414" s="197" t="s">
         <v>482</v>
       </c>
-      <c r="F392" s="198">
+      <c r="F414" s="198">
         <v>168</v>
       </c>
-      <c r="G392" s="199" t="s">
+      <c r="G414" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="H392" s="200" t="s">
+      <c r="H414" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="I392" s="195" t="s">
-        <v>98</v>
-      </c>
-      <c r="J392" s="196" t="s">
+      <c r="I414" s="195" t="s">
+        <v>98</v>
+      </c>
+      <c r="J414" s="196" t="s">
         <v>478</v>
       </c>
-      <c r="K392" s="196" t="s">
+      <c r="K414" s="196" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="393" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A393" s="195" t="str">
-        <f t="shared" si="9"/>
+    <row r="415" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A415" s="195" t="str">
+        <f t="shared" si="11"/>
         <v>105_90002_2018000009</v>
       </c>
-      <c r="B393" s="196">
+      <c r="B415" s="196">
         <v>105</v>
       </c>
-      <c r="C393" s="195">
-        <v>90002</v>
-      </c>
-      <c r="D393" s="195" t="s">
+      <c r="C415" s="195">
+        <v>90002</v>
+      </c>
+      <c r="D415" s="195" t="s">
         <v>490</v>
       </c>
-      <c r="E393" s="197" t="s">
+      <c r="E415" s="197" t="s">
         <v>483</v>
       </c>
-      <c r="F393" s="198">
+      <c r="F415" s="198">
         <v>238</v>
       </c>
-      <c r="G393" s="199" t="s">
+      <c r="G415" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="H393" s="200" t="s">
+      <c r="H415" s="200" t="s">
         <v>55</v>
       </c>
-      <c r="I393" s="195" t="s">
-        <v>98</v>
-      </c>
-      <c r="J393" s="196" t="s">
+      <c r="I415" s="195" t="s">
+        <v>98</v>
+      </c>
+      <c r="J415" s="196" t="s">
         <v>478</v>
       </c>
-      <c r="K393" s="196" t="s">
+      <c r="K415" s="196" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="394" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A394" s="195" t="str">
-        <f t="shared" si="9"/>
+    <row r="416" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A416" s="195" t="str">
+        <f t="shared" si="11"/>
         <v>106_90002_2018000009</v>
       </c>
-      <c r="B394" s="196">
+      <c r="B416" s="196">
         <v>106</v>
       </c>
-      <c r="C394" s="195">
-        <v>90002</v>
-      </c>
-      <c r="D394" s="195" t="s">
+      <c r="C416" s="195">
+        <v>90002</v>
+      </c>
+      <c r="D416" s="195" t="s">
         <v>490</v>
       </c>
-      <c r="E394" s="197" t="s">
+      <c r="E416" s="197" t="s">
         <v>484</v>
       </c>
-      <c r="F394" s="198">
+      <c r="F416" s="198">
         <v>328</v>
       </c>
-      <c r="G394" s="199" t="s">
+      <c r="G416" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="H394" s="200" t="s">
+      <c r="H416" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="I394" s="195" t="s">
-        <v>98</v>
-      </c>
-      <c r="J394" s="196" t="s">
+      <c r="I416" s="195" t="s">
+        <v>98</v>
+      </c>
+      <c r="J416" s="196" t="s">
         <v>478</v>
       </c>
-      <c r="K394" s="196" t="s">
+      <c r="K416" s="196" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="395" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A395" s="195" t="str">
-        <f t="shared" si="9"/>
+    <row r="417" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A417" s="195" t="str">
+        <f t="shared" si="11"/>
         <v>107_90002_2018000009</v>
       </c>
-      <c r="B395" s="196">
+      <c r="B417" s="196">
         <v>107</v>
       </c>
-      <c r="C395" s="195">
-        <v>90002</v>
-      </c>
-      <c r="D395" s="195" t="s">
+      <c r="C417" s="195">
+        <v>90002</v>
+      </c>
+      <c r="D417" s="195" t="s">
         <v>490</v>
       </c>
-      <c r="E395" s="197" t="s">
+      <c r="E417" s="197" t="s">
         <v>485</v>
       </c>
-      <c r="F395" s="198">
+      <c r="F417" s="198">
         <v>648</v>
       </c>
-      <c r="G395" s="199" t="s">
+      <c r="G417" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="H395" s="200" t="s">
+      <c r="H417" s="200" t="s">
         <v>57</v>
       </c>
-      <c r="I395" s="195" t="s">
-        <v>98</v>
-      </c>
-      <c r="J395" s="196" t="s">
+      <c r="I417" s="195" t="s">
+        <v>98</v>
+      </c>
+      <c r="J417" s="196" t="s">
         <v>478</v>
       </c>
-      <c r="K395" s="196" t="s">
+      <c r="K417" s="196" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="396" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A396" s="195" t="str">
-        <f t="shared" si="9"/>
+    <row r="418" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A418" s="195" t="str">
+        <f t="shared" si="11"/>
         <v>201_90002_2018000009</v>
       </c>
-      <c r="B396" s="196">
+      <c r="B418" s="196">
         <v>201</v>
       </c>
-      <c r="C396" s="195">
-        <v>90002</v>
-      </c>
-      <c r="D396" s="195" t="s">
+      <c r="C418" s="195">
+        <v>90002</v>
+      </c>
+      <c r="D418" s="195" t="s">
         <v>490</v>
       </c>
-      <c r="E396" s="197" t="s">
+      <c r="E418" s="197" t="s">
         <v>486</v>
       </c>
-      <c r="F396" s="202">
+      <c r="F418" s="202">
         <v>88</v>
       </c>
-      <c r="G396" s="202" t="s">
+      <c r="G418" s="202" t="s">
         <v>20</v>
       </c>
-      <c r="H396" s="202" t="s">
+      <c r="H418" s="202" t="s">
         <v>58</v>
       </c>
-      <c r="I396" s="195" t="s">
-        <v>98</v>
-      </c>
-      <c r="J396" s="196" t="s">
+      <c r="I418" s="195" t="s">
+        <v>98</v>
+      </c>
+      <c r="J418" s="196" t="s">
         <v>478</v>
       </c>
-      <c r="K396" s="196" t="s">
+      <c r="K418" s="196" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="397" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A397" s="195" t="str">
-        <f t="shared" si="9"/>
+    <row r="419" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A419" s="195" t="str">
+        <f t="shared" si="11"/>
         <v>301_90002_2018000009</v>
       </c>
-      <c r="B397" s="196">
+      <c r="B419" s="196">
         <v>301</v>
       </c>
-      <c r="C397" s="195">
-        <v>90002</v>
-      </c>
-      <c r="D397" s="195" t="s">
+      <c r="C419" s="195">
+        <v>90002</v>
+      </c>
+      <c r="D419" s="195" t="s">
         <v>490</v>
       </c>
-      <c r="E397" s="197" t="s">
+      <c r="E419" s="197" t="s">
         <v>487</v>
       </c>
-      <c r="F397" s="202">
+      <c r="F419" s="202">
         <v>6</v>
       </c>
-      <c r="G397" s="202" t="s">
+      <c r="G419" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="H397" s="202" t="s">
+      <c r="H419" s="202" t="s">
         <v>59</v>
       </c>
-      <c r="I397" s="195" t="s">
-        <v>98</v>
-      </c>
-      <c r="J397" s="196" t="s">
+      <c r="I419" s="195" t="s">
+        <v>98</v>
+      </c>
+      <c r="J419" s="196" t="s">
         <v>478</v>
       </c>
-      <c r="K397" s="196" t="s">
+      <c r="K419" s="196" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="398" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A398" s="195" t="str">
-        <f t="shared" si="9"/>
+    <row r="420" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A420" s="195" t="str">
+        <f t="shared" si="11"/>
         <v>302_90002_2018000009</v>
       </c>
-      <c r="B398" s="196">
+      <c r="B420" s="196">
         <v>302</v>
       </c>
-      <c r="C398" s="195">
-        <v>90002</v>
-      </c>
-      <c r="D398" s="195" t="s">
+      <c r="C420" s="195">
+        <v>90002</v>
+      </c>
+      <c r="D420" s="195" t="s">
         <v>490</v>
       </c>
-      <c r="E398" s="197" t="s">
+      <c r="E420" s="197" t="s">
         <v>488</v>
       </c>
-      <c r="F398" s="202">
+      <c r="F420" s="202">
         <v>12</v>
       </c>
-      <c r="G398" s="202" t="s">
+      <c r="G420" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="H398" s="202" t="s">
+      <c r="H420" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="I398" s="195" t="s">
-        <v>98</v>
-      </c>
-      <c r="J398" s="196" t="s">
+      <c r="I420" s="195" t="s">
+        <v>98</v>
+      </c>
+      <c r="J420" s="196" t="s">
         <v>478</v>
       </c>
-      <c r="K398" s="196" t="s">
+      <c r="K420" s="196" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="399" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A399" s="195" t="str">
-        <f t="shared" si="9"/>
+    <row r="421" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A421" s="195" t="str">
+        <f t="shared" si="11"/>
         <v>303_90002_2018000009</v>
       </c>
-      <c r="B399" s="196">
+      <c r="B421" s="196">
         <v>303</v>
       </c>
-      <c r="C399" s="195">
-        <v>90002</v>
-      </c>
-      <c r="D399" s="195" t="s">
+      <c r="C421" s="195">
+        <v>90002</v>
+      </c>
+      <c r="D421" s="195" t="s">
         <v>490</v>
       </c>
-      <c r="E399" s="197" t="s">
+      <c r="E421" s="197" t="s">
         <v>504</v>
       </c>
-      <c r="F399" s="202">
+      <c r="F421" s="202">
         <v>25</v>
       </c>
-      <c r="G399" s="202" t="s">
+      <c r="G421" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="H399" s="202" t="s">
+      <c r="H421" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="I399" s="195" t="s">
-        <v>98</v>
-      </c>
-      <c r="J399" s="196" t="s">
+      <c r="I421" s="195" t="s">
+        <v>98</v>
+      </c>
+      <c r="J421" s="196" t="s">
         <v>478</v>
       </c>
-      <c r="K399" s="196" t="s">
+      <c r="K421" s="196" t="s">
         <v>489</v>
       </c>
     </row>
